--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T14:54:53+00:00</t>
+    <t>2024-05-27T15:00:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-27T15:00:38+00:00</t>
+    <t>2024-05-28T12:35:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T12:35:56+00:00</t>
+    <t>2024-05-28T13:45:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T13:45:00+00:00</t>
+    <t>2024-05-28T14:44:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:44:14+00:00</t>
+    <t>2024-05-28T14:54:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T14:54:25+00:00</t>
+    <t>2024-05-28T15:01:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-28T15:01:56+00:00</t>
+    <t>2024-05-29T08:10:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-29T08:10:39+00:00</t>
+    <t>2024-05-30T08:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-30T08:16:30+00:00</t>
+    <t>2024-05-31T12:49:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-31T12:49:41+00:00</t>
+    <t>2024-06-03T08:47:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T08:47:04+00:00</t>
+    <t>2024-06-03T12:03:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T12:03:22+00:00</t>
+    <t>2024-06-03T13:43:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9118" uniqueCount="1182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9116" uniqueCount="1190">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-03T13:43:08+00:00</t>
+    <t>2024-06-04T08:55:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -278,7 +278,7 @@
 dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().ofType(canonical) | %resource.descendants().ofType(uri) | %resource.descendants().ofType(url))) or descendants().where(reference = '#').exists() or descendants().where(ofType(canonical) = '#').exists() or descendants().where(ofType(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
-    <t>ElementPrescription</t>
+    <t>ElementPrescription,ElementPosologie</t>
   </si>
   <si>
     <t>Request</t>
@@ -2875,10 +2875,7 @@
     <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
   </si>
   <si>
-    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/voie-administration-valueset</t>
   </si>
   <si>
     <t>Dosage.route</t>
@@ -2911,10 +2908,7 @@
     <t>A coded value indicating the method by which the medication is introduced into or onto the body. Most commonly used for injections.  For examples, Slow Push; Deep IV.</t>
   </si>
   <si>
-    <t>A coded concept describing the technique by which the medicine is administered.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
+    <t>http://ltsi.univ-rennes.fr/ValueSet/siph-typeeltpla-oncofair-valueset</t>
   </si>
   <si>
     <t>Dosage.method</t>
@@ -3184,7 +3178,10 @@
     <t>startEvent</t>
   </si>
   <si>
-    <t>Event triggering the start of a therapeutic phase</t>
+    <t>Type of event that triggers the start of a therapeutic phase</t>
+  </si>
+  <si>
+    <t>typeEvenementDebut</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.event:startEvent.id</t>
@@ -3229,7 +3226,10 @@
     <t>endEvent</t>
   </si>
   <si>
-    <t>Event triggering the end of a therapeutic phase</t>
+    <t>Type of event that triggers the end of a therapeutic phase</t>
+  </si>
+  <si>
+    <t>typeEvenementFin</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.event:endEvent.id</t>
@@ -3265,6 +3265,9 @@
     <t>Duration of administration</t>
   </si>
   <si>
+    <t>duree</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.repeat.durationMax</t>
   </si>
   <si>
@@ -3277,6 +3280,9 @@
     <t>Indicates the recurrence of the dosage. By default, every day</t>
   </si>
   <si>
+    <t>frequence</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.repeat.frequencyMax</t>
   </si>
   <si>
@@ -3325,10 +3331,22 @@
     <t>How drug should enter body</t>
   </si>
   <si>
+    <t>A coded concept describing the route or physiological path of administration of a therapeutic agent into or onto the body of a subject.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
+  </si>
+  <si>
     <t>MedicationRequest.dosageInstruction:posology.method</t>
   </si>
   <si>
     <t>Technique for administering medication</t>
+  </si>
+  <si>
+    <t>A coded concept describing the technique by which the medicine is administered.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/administration-method-codes</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.doseAndRate</t>
@@ -3365,6 +3383,9 @@
 qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}</t>
   </si>
   <si>
+    <t>quantite</t>
+  </si>
+  <si>
     <t>n/a,PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>
   </si>
   <si>
@@ -3381,6 +3402,9 @@
   </si>
   <si>
     <t>Rate of administration in the case of injection</t>
+  </si>
+  <si>
+    <t>debit</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.maxDosePerPeriod</t>
@@ -21825,31 +21849,29 @@
         <v>80</v>
       </c>
       <c r="X149" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y149" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y149" s="2"/>
+      <c r="Z149" t="s" s="2">
         <v>911</v>
       </c>
-      <c r="Z149" t="s" s="2">
+      <c r="AA149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF149" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="AA149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF149" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="AG149" t="s" s="2">
         <v>78</v>
@@ -21864,30 +21886,30 @@
         <v>103</v>
       </c>
       <c r="AK149" t="s" s="2">
+        <v>913</v>
+      </c>
+      <c r="AL149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN149" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO149" t="s" s="2">
         <v>914</v>
       </c>
-      <c r="AL149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN149" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO149" t="s" s="2">
+      <c r="AP149" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="AP149" t="s" s="2">
-        <v>916</v>
       </c>
     </row>
     <row r="150" hidden="true">
       <c r="A150" t="s" s="2">
+        <v>916</v>
+      </c>
+      <c r="B150" t="s" s="2">
         <v>917</v>
-      </c>
-      <c r="B150" t="s" s="2">
-        <v>918</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -21913,16 +21935,16 @@
         <v>207</v>
       </c>
       <c r="L150" t="s" s="2">
+        <v>918</v>
+      </c>
+      <c r="M150" t="s" s="2">
         <v>919</v>
       </c>
-      <c r="M150" t="s" s="2">
+      <c r="N150" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="N150" t="s" s="2">
+      <c r="O150" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="O150" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="P150" t="s" s="2">
         <v>80</v>
@@ -21947,31 +21969,29 @@
         <v>80</v>
       </c>
       <c r="X150" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y150" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y150" s="2"/>
+      <c r="Z150" t="s" s="2">
+        <v>922</v>
+      </c>
+      <c r="AA150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF150" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="Z150" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="AA150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF150" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="AG150" t="s" s="2">
         <v>78</v>
@@ -21986,30 +22006,30 @@
         <v>103</v>
       </c>
       <c r="AK150" t="s" s="2">
+        <v>924</v>
+      </c>
+      <c r="AL150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AM150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AN150" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AO150" t="s" s="2">
+        <v>925</v>
+      </c>
+      <c r="AP150" t="s" s="2">
         <v>926</v>
-      </c>
-      <c r="AL150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN150" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO150" t="s" s="2">
-        <v>927</v>
-      </c>
-      <c r="AP150" t="s" s="2">
-        <v>928</v>
       </c>
     </row>
     <row r="151" hidden="true">
       <c r="A151" t="s" s="2">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C151" s="2"/>
       <c r="D151" t="s" s="2">
@@ -22035,10 +22055,10 @@
         <v>731</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -22089,7 +22109,7 @@
         <v>80</v>
       </c>
       <c r="AF151" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AG151" t="s" s="2">
         <v>78</v>
@@ -22116,18 +22136,18 @@
         <v>80</v>
       </c>
       <c r="AO151" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AP151" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="152" hidden="true">
       <c r="A152" t="s" s="2">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -22242,10 +22262,10 @@
     </row>
     <row r="153" hidden="true">
       <c r="A153" t="s" s="2">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -22362,10 +22382,10 @@
     </row>
     <row r="154" hidden="true">
       <c r="A154" t="s" s="2">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -22391,14 +22411,14 @@
         <v>207</v>
       </c>
       <c r="L154" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="M154" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N154" s="2"/>
       <c r="O154" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="P154" t="s" s="2">
         <v>80</v>
@@ -22426,28 +22446,28 @@
         <v>348</v>
       </c>
       <c r="Y154" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="Z154" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="AA154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE154" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF154" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="Z154" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="AA154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE154" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF154" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="AG154" t="s" s="2">
         <v>78</v>
@@ -22477,15 +22497,15 @@
         <v>80</v>
       </c>
       <c r="AP154" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="155" hidden="true">
       <c r="A155" t="s" s="2">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -22508,19 +22528,19 @@
         <v>92</v>
       </c>
       <c r="K155" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="L155" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M155" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="L155" t="s" s="2">
+      <c r="N155" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M155" t="s" s="2">
+      <c r="O155" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="O155" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="P155" t="s" s="2">
         <v>80</v>
@@ -22569,7 +22589,7 @@
         <v>80</v>
       </c>
       <c r="AF155" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG155" t="s" s="2">
         <v>78</v>
@@ -22596,18 +22616,18 @@
         <v>80</v>
       </c>
       <c r="AO155" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AP155" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="156" hidden="true">
       <c r="A156" t="s" s="2">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C156" s="2"/>
       <c r="D156" t="s" s="2">
@@ -22630,19 +22650,19 @@
         <v>92</v>
       </c>
       <c r="K156" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="L156" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="M156" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="L156" t="s" s="2">
+      <c r="N156" t="s" s="2">
         <v>962</v>
       </c>
-      <c r="M156" t="s" s="2">
+      <c r="O156" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="N156" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="O156" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>80</v>
@@ -22691,7 +22711,7 @@
         <v>80</v>
       </c>
       <c r="AF156" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AG156" t="s" s="2">
         <v>78</v>
@@ -22718,18 +22738,18 @@
         <v>80</v>
       </c>
       <c r="AO156" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AP156" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="157" hidden="true">
       <c r="A157" t="s" s="2">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -22752,19 +22772,19 @@
         <v>92</v>
       </c>
       <c r="K157" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L157" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M157" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L157" t="s" s="2">
+      <c r="N157" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="M157" t="s" s="2">
+      <c r="O157" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="N157" t="s" s="2">
-        <v>974</v>
-      </c>
-      <c r="O157" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="P157" t="s" s="2">
         <v>80</v>
@@ -22813,7 +22833,7 @@
         <v>80</v>
       </c>
       <c r="AF157" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AG157" t="s" s="2">
         <v>78</v>
@@ -22840,18 +22860,18 @@
         <v>80</v>
       </c>
       <c r="AO157" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AP157" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="158" hidden="true">
       <c r="A158" t="s" s="2">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -22874,19 +22894,19 @@
         <v>92</v>
       </c>
       <c r="K158" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L158" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="M158" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L158" t="s" s="2">
+      <c r="N158" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M158" t="s" s="2">
+      <c r="O158" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N158" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O158" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P158" t="s" s="2">
         <v>80</v>
@@ -22935,7 +22955,7 @@
         <v>80</v>
       </c>
       <c r="AF158" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AG158" t="s" s="2">
         <v>78</v>
@@ -22962,7 +22982,7 @@
         <v>80</v>
       </c>
       <c r="AO158" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AP158" t="s" s="2">
         <v>80</v>
@@ -22970,10 +22990,10 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -22996,17 +23016,17 @@
         <v>92</v>
       </c>
       <c r="K159" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L159" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M159" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N159" s="2"/>
       <c r="O159" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="P159" t="s" s="2">
         <v>80</v>
@@ -23055,7 +23075,7 @@
         <v>80</v>
       </c>
       <c r="AF159" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AG159" t="s" s="2">
         <v>78</v>
@@ -23082,7 +23102,7 @@
         <v>80</v>
       </c>
       <c r="AO159" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AP159" t="s" s="2">
         <v>80</v>
@@ -23090,13 +23110,13 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="B160" t="s" s="2">
         <v>657</v>
       </c>
       <c r="C160" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="D160" t="s" s="2">
         <v>80</v>
@@ -23212,7 +23232,7 @@
     </row>
     <row r="161" hidden="true">
       <c r="A161" t="s" s="2">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="B161" t="s" s="2">
         <v>665</v>
@@ -23256,7 +23276,7 @@
         <v>80</v>
       </c>
       <c r="S161" t="s" s="2">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="T161" t="s" s="2">
         <v>80</v>
@@ -23330,7 +23350,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B162" t="s" s="2">
         <v>667</v>
@@ -23450,7 +23470,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="B163" t="s" s="2">
         <v>669</v>
@@ -23572,7 +23592,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B164" t="s" s="2">
         <v>675</v>
@@ -23692,7 +23712,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="B165" t="s" s="2">
         <v>684</v>
@@ -23721,7 +23741,7 @@
         <v>227</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="M165" t="s" s="2">
         <v>686</v>
@@ -23812,7 +23832,7 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="B166" t="s" s="2">
         <v>692</v>
@@ -23841,7 +23861,7 @@
         <v>207</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="M166" t="s" s="2">
         <v>694</v>
@@ -23934,7 +23954,7 @@
     </row>
     <row r="167" hidden="true">
       <c r="A167" t="s" s="2">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="B167" t="s" s="2">
         <v>703</v>
@@ -24052,7 +24072,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>708</v>
@@ -24174,7 +24194,7 @@
     </row>
     <row r="169" hidden="true">
       <c r="A169" t="s" s="2">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="B169" t="s" s="2">
         <v>717</v>
@@ -24292,7 +24312,7 @@
     </row>
     <row r="170" hidden="true">
       <c r="A170" t="s" s="2">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B170" t="s" s="2">
         <v>719</v>
@@ -24412,7 +24432,7 @@
     </row>
     <row r="171" hidden="true">
       <c r="A171" t="s" s="2">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="B171" t="s" s="2">
         <v>721</v>
@@ -24534,7 +24554,7 @@
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B172" t="s" s="2">
         <v>723</v>
@@ -24652,13 +24672,13 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="B173" t="s" s="2">
         <v>723</v>
       </c>
       <c r="C173" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D173" t="s" s="2">
         <v>80</v>
@@ -24683,7 +24703,7 @@
         <v>354</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="M173" t="s" s="2">
         <v>725</v>
@@ -24754,7 +24774,7 @@
         <v>103</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>80</v>
+        <v>1011</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>80</v>
@@ -24774,10 +24794,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B174" t="s" s="2">
         <v>1013</v>
-      </c>
-      <c r="B174" t="s" s="2">
-        <v>1014</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24803,10 +24823,10 @@
         <v>227</v>
       </c>
       <c r="L174" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M174" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="M174" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -24818,7 +24838,7 @@
         <v>80</v>
       </c>
       <c r="S174" t="s" s="2">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>80</v>
@@ -24892,10 +24912,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B175" t="s" s="2">
         <v>1017</v>
-      </c>
-      <c r="B175" t="s" s="2">
-        <v>1018</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24924,7 +24944,7 @@
         <v>193</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>172</v>
@@ -25012,10 +25032,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
+        <v>1019</v>
+      </c>
+      <c r="B176" t="s" s="2">
         <v>1020</v>
-      </c>
-      <c r="B176" t="s" s="2">
-        <v>1021</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -25041,10 +25061,10 @@
         <v>354</v>
       </c>
       <c r="L176" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="M176" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="M176" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -25095,7 +25115,7 @@
         <v>80</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -25130,13 +25150,13 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="B177" t="s" s="2">
         <v>723</v>
       </c>
       <c r="C177" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="D177" t="s" s="2">
         <v>80</v>
@@ -25161,7 +25181,7 @@
         <v>354</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="M177" t="s" s="2">
         <v>725</v>
@@ -25232,7 +25252,7 @@
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>80</v>
+        <v>1027</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>80</v>
@@ -25255,7 +25275,7 @@
         <v>1028</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -25281,10 +25301,10 @@
         <v>227</v>
       </c>
       <c r="L178" t="s" s="2">
+        <v>1014</v>
+      </c>
+      <c r="M178" t="s" s="2">
         <v>1015</v>
-      </c>
-      <c r="M178" t="s" s="2">
-        <v>1016</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -25296,7 +25316,7 @@
         <v>80</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>80</v>
@@ -25373,7 +25393,7 @@
         <v>1029</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -25402,7 +25422,7 @@
         <v>193</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="N179" t="s" s="2">
         <v>172</v>
@@ -25493,7 +25513,7 @@
         <v>1030</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25519,10 +25539,10 @@
         <v>354</v>
       </c>
       <c r="L180" t="s" s="2">
+        <v>1021</v>
+      </c>
+      <c r="M180" t="s" s="2">
         <v>1022</v>
-      </c>
-      <c r="M180" t="s" s="2">
-        <v>1023</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -25573,7 +25593,7 @@
         <v>80</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -26426,7 +26446,7 @@
         <v>103</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>80</v>
+        <v>1039</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>80</v>
@@ -26446,7 +26466,7 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>790</v>
@@ -26568,7 +26588,7 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="B189" t="s" s="2">
         <v>796</v>
@@ -26686,7 +26706,7 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="B190" t="s" s="2">
         <v>805</v>
@@ -26715,7 +26735,7 @@
         <v>766</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="M190" t="s" s="2">
         <v>807</v>
@@ -26786,7 +26806,7 @@
         <v>103</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>80</v>
+        <v>1044</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>80</v>
@@ -26806,7 +26826,7 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>1043</v>
+        <v>1045</v>
       </c>
       <c r="B191" t="s" s="2">
         <v>811</v>
@@ -26924,7 +26944,7 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="B192" t="s" s="2">
         <v>816</v>
@@ -27042,7 +27062,7 @@
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>1045</v>
+        <v>1047</v>
       </c>
       <c r="B193" t="s" s="2">
         <v>822</v>
@@ -27160,7 +27180,7 @@
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>1046</v>
+        <v>1048</v>
       </c>
       <c r="B194" t="s" s="2">
         <v>828</v>
@@ -27278,7 +27298,7 @@
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>1047</v>
+        <v>1049</v>
       </c>
       <c r="B195" t="s" s="2">
         <v>833</v>
@@ -27396,7 +27416,7 @@
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>1048</v>
+        <v>1050</v>
       </c>
       <c r="B196" t="s" s="2">
         <v>840</v>
@@ -27516,7 +27536,7 @@
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>1049</v>
+        <v>1051</v>
       </c>
       <c r="B197" t="s" s="2">
         <v>848</v>
@@ -27638,7 +27658,7 @@
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>1050</v>
+        <v>1052</v>
       </c>
       <c r="B198" t="s" s="2">
         <v>859</v>
@@ -27667,7 +27687,7 @@
         <v>860</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>1051</v>
+        <v>1053</v>
       </c>
       <c r="M198" t="s" s="2">
         <v>862</v>
@@ -27756,7 +27776,7 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>1052</v>
+        <v>1054</v>
       </c>
       <c r="B199" t="s" s="2">
         <v>868</v>
@@ -27876,7 +27896,7 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>1053</v>
+        <v>1055</v>
       </c>
       <c r="B200" t="s" s="2">
         <v>878</v>
@@ -27996,7 +28016,7 @@
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>1054</v>
+        <v>1056</v>
       </c>
       <c r="B201" t="s" s="2">
         <v>887</v>
@@ -28116,7 +28136,7 @@
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>1055</v>
+        <v>1057</v>
       </c>
       <c r="B202" t="s" s="2">
         <v>895</v>
@@ -28145,7 +28165,7 @@
         <v>207</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>1056</v>
+        <v>1058</v>
       </c>
       <c r="M202" t="s" s="2">
         <v>897</v>
@@ -28238,7 +28258,7 @@
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>1057</v>
+        <v>1059</v>
       </c>
       <c r="B203" t="s" s="2">
         <v>907</v>
@@ -28267,7 +28287,7 @@
         <v>207</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>1058</v>
+        <v>1060</v>
       </c>
       <c r="M203" t="s" s="2">
         <v>909</v>
@@ -28302,28 +28322,28 @@
         <v>348</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>911</v>
+        <v>1061</v>
       </c>
       <c r="Z203" t="s" s="2">
+        <v>1062</v>
+      </c>
+      <c r="AA203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE203" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF203" t="s" s="2">
         <v>912</v>
-      </c>
-      <c r="AA203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF203" t="s" s="2">
-        <v>913</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -28350,18 +28370,18 @@
         <v>80</v>
       </c>
       <c r="AO203" t="s" s="2">
+        <v>914</v>
+      </c>
+      <c r="AP203" t="s" s="2">
         <v>915</v>
-      </c>
-      <c r="AP203" t="s" s="2">
-        <v>916</v>
       </c>
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>1059</v>
+        <v>1063</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -28387,16 +28407,16 @@
         <v>207</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>1060</v>
+        <v>1064</v>
       </c>
       <c r="M204" t="s" s="2">
+        <v>919</v>
+      </c>
+      <c r="N204" t="s" s="2">
         <v>920</v>
       </c>
-      <c r="N204" t="s" s="2">
+      <c r="O204" t="s" s="2">
         <v>921</v>
-      </c>
-      <c r="O204" t="s" s="2">
-        <v>922</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>80</v>
@@ -28424,28 +28444,28 @@
         <v>348</v>
       </c>
       <c r="Y204" t="s" s="2">
+        <v>1065</v>
+      </c>
+      <c r="Z204" t="s" s="2">
+        <v>1066</v>
+      </c>
+      <c r="AA204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE204" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF204" t="s" s="2">
         <v>923</v>
-      </c>
-      <c r="Z204" t="s" s="2">
-        <v>924</v>
-      </c>
-      <c r="AA204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE204" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF204" t="s" s="2">
-        <v>925</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -28472,18 +28492,18 @@
         <v>80</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="AP204" t="s" s="2">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -28509,10 +28529,10 @@
         <v>731</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -28563,7 +28583,7 @@
         <v>80</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -28590,18 +28610,18 @@
         <v>80</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="AP205" t="s" s="2">
-        <v>935</v>
+        <v>933</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28716,10 +28736,10 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -28836,10 +28856,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28865,14 +28885,14 @@
         <v>207</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>80</v>
@@ -28900,28 +28920,28 @@
         <v>348</v>
       </c>
       <c r="Y208" t="s" s="2">
+        <v>943</v>
+      </c>
+      <c r="Z208" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="AA208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE208" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AF208" t="s" s="2">
         <v>945</v>
-      </c>
-      <c r="Z208" t="s" s="2">
-        <v>946</v>
-      </c>
-      <c r="AA208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE208" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF208" t="s" s="2">
-        <v>947</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -28951,15 +28971,15 @@
         <v>80</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>1065</v>
+        <v>1071</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28982,19 +29002,19 @@
         <v>92</v>
       </c>
       <c r="K209" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="L209" t="s" s="2">
+        <v>950</v>
+      </c>
+      <c r="M209" t="s" s="2">
         <v>951</v>
       </c>
-      <c r="L209" t="s" s="2">
+      <c r="N209" t="s" s="2">
         <v>952</v>
       </c>
-      <c r="M209" t="s" s="2">
+      <c r="O209" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>954</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>955</v>
       </c>
       <c r="P209" t="s" s="2">
         <v>80</v>
@@ -29041,7 +29061,7 @@
         <v>142</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>
@@ -29068,21 +29088,21 @@
         <v>80</v>
       </c>
       <c r="AO209" t="s" s="2">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>1066</v>
+        <v>1072</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>1067</v>
+        <v>1073</v>
       </c>
       <c r="D210" t="s" s="2">
         <v>80</v>
@@ -29104,19 +29124,19 @@
         <v>80</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>1068</v>
+        <v>1074</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="O210" t="s" s="2">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="P210" t="s" s="2">
         <v>80</v>
@@ -29165,7 +29185,7 @@
         <v>80</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
@@ -29177,10 +29197,10 @@
         <v>80</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>80</v>
+        <v>1078</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>80</v>
@@ -29192,18 +29212,18 @@
         <v>80</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>1073</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>1074</v>
+        <v>1081</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -29226,19 +29246,19 @@
         <v>92</v>
       </c>
       <c r="K211" t="s" s="2">
+        <v>959</v>
+      </c>
+      <c r="L211" t="s" s="2">
+        <v>960</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>961</v>
       </c>
-      <c r="L211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>962</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="O211" t="s" s="2">
         <v>963</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>964</v>
-      </c>
-      <c r="O211" t="s" s="2">
-        <v>965</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>80</v>
@@ -29285,7 +29305,7 @@
         <v>142</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>78</v>
@@ -29312,21 +29332,21 @@
         <v>80</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="AP211" t="s" s="2">
-        <v>968</v>
+        <v>966</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>1075</v>
+        <v>1082</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>1076</v>
+        <v>1083</v>
       </c>
       <c r="D212" t="s" s="2">
         <v>80</v>
@@ -29348,19 +29368,19 @@
         <v>80</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>1077</v>
+        <v>1084</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>1069</v>
+        <v>1075</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>1070</v>
+        <v>1076</v>
       </c>
       <c r="O212" t="s" s="2">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="P212" t="s" s="2">
         <v>80</v>
@@ -29409,7 +29429,7 @@
         <v>80</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>78</v>
@@ -29421,10 +29441,10 @@
         <v>80</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>1071</v>
+        <v>1077</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>80</v>
+        <v>1085</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>80</v>
@@ -29436,18 +29456,18 @@
         <v>80</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>1072</v>
+        <v>1079</v>
       </c>
       <c r="AP212" t="s" s="2">
-        <v>1073</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>1078</v>
+        <v>1086</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -29470,19 +29490,19 @@
         <v>92</v>
       </c>
       <c r="K213" t="s" s="2">
+        <v>969</v>
+      </c>
+      <c r="L213" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="L213" t="s" s="2">
+      <c r="N213" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="M213" t="s" s="2">
+      <c r="O213" t="s" s="2">
         <v>973</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>974</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>80</v>
@@ -29531,7 +29551,7 @@
         <v>80</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
@@ -29558,18 +29578,18 @@
         <v>80</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="AP213" t="s" s="2">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>1079</v>
+        <v>1087</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -29592,19 +29612,19 @@
         <v>92</v>
       </c>
       <c r="K214" t="s" s="2">
+        <v>979</v>
+      </c>
+      <c r="L214" t="s" s="2">
+        <v>980</v>
+      </c>
+      <c r="M214" t="s" s="2">
         <v>981</v>
       </c>
-      <c r="L214" t="s" s="2">
+      <c r="N214" t="s" s="2">
         <v>982</v>
       </c>
-      <c r="M214" t="s" s="2">
+      <c r="O214" t="s" s="2">
         <v>983</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>984</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>985</v>
       </c>
       <c r="P214" t="s" s="2">
         <v>80</v>
@@ -29653,7 +29673,7 @@
         <v>80</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>78</v>
@@ -29680,7 +29700,7 @@
         <v>80</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>80</v>
@@ -29688,10 +29708,10 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>1080</v>
+        <v>1088</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -29714,17 +29734,17 @@
         <v>92</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="N215" s="2"/>
       <c r="O215" t="s" s="2">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>80</v>
@@ -29773,7 +29793,7 @@
         <v>80</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
@@ -29800,7 +29820,7 @@
         <v>80</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="AP215" t="s" s="2">
         <v>80</v>
@@ -29808,10 +29828,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29834,13 +29854,13 @@
         <v>80</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>1083</v>
+        <v>1091</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>1084</v>
+        <v>1092</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29891,7 +29911,7 @@
         <v>80</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>1081</v>
+        <v>1089</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>78</v>
@@ -29912,13 +29932,13 @@
         <v>80</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>1085</v>
+        <v>1093</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>1086</v>
+        <v>1094</v>
       </c>
       <c r="AP216" t="s" s="2">
         <v>80</v>
@@ -29926,10 +29946,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>1087</v>
+        <v>1095</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -30044,10 +30064,10 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>1088</v>
+        <v>1096</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
@@ -30164,10 +30184,10 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>1089</v>
+        <v>1097</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -30251,7 +30271,7 @@
         <v>80</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
@@ -30286,10 +30306,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -30312,16 +30332,16 @@
         <v>80</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>1092</v>
+        <v>1100</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>1093</v>
+        <v>1101</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>1094</v>
+        <v>1102</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -30371,7 +30391,7 @@
         <v>80</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>1091</v>
+        <v>1099</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>78</v>
@@ -30398,7 +30418,7 @@
         <v>80</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>1095</v>
+        <v>1103</v>
       </c>
       <c r="AP220" t="s" s="2">
         <v>80</v>
@@ -30406,10 +30426,10 @@
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>1096</v>
+        <v>1104</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -30524,10 +30544,10 @@
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>1097</v>
+        <v>1105</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -30644,10 +30664,10 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1098</v>
+        <v>1106</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
@@ -30731,7 +30751,7 @@
         <v>80</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>78</v>
@@ -30766,10 +30786,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30792,13 +30812,13 @@
         <v>80</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>1100</v>
+        <v>1108</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>1101</v>
+        <v>1109</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30849,7 +30869,7 @@
         <v>80</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>1099</v>
+        <v>1107</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>78</v>
@@ -30876,7 +30896,7 @@
         <v>80</v>
       </c>
       <c r="AO224" t="s" s="2">
-        <v>1102</v>
+        <v>1110</v>
       </c>
       <c r="AP224" t="s" s="2">
         <v>80</v>
@@ -30884,10 +30904,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30910,13 +30930,13 @@
         <v>80</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>1105</v>
+        <v>1113</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>1106</v>
+        <v>1114</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30967,7 +30987,7 @@
         <v>80</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>1103</v>
+        <v>1111</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>78</v>
@@ -30994,7 +31014,7 @@
         <v>80</v>
       </c>
       <c r="AO225" t="s" s="2">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="AP225" t="s" s="2">
         <v>80</v>
@@ -31002,10 +31022,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -31028,13 +31048,13 @@
         <v>80</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>1109</v>
+        <v>1117</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1110</v>
+        <v>1118</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -31085,7 +31105,7 @@
         <v>80</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>1108</v>
+        <v>1116</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>78</v>
@@ -31112,7 +31132,7 @@
         <v>80</v>
       </c>
       <c r="AO226" t="s" s="2">
-        <v>1107</v>
+        <v>1115</v>
       </c>
       <c r="AP226" t="s" s="2">
         <v>80</v>
@@ -31120,10 +31140,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -31149,16 +31169,16 @@
         <v>237</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1112</v>
+        <v>1120</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>1113</v>
+        <v>1121</v>
       </c>
       <c r="N227" t="s" s="2">
-        <v>1114</v>
+        <v>1122</v>
       </c>
       <c r="O227" t="s" s="2">
-        <v>1115</v>
+        <v>1123</v>
       </c>
       <c r="P227" t="s" s="2">
         <v>80</v>
@@ -31207,7 +31227,7 @@
         <v>80</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>1111</v>
+        <v>1119</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>78</v>
@@ -31228,13 +31248,13 @@
         <v>80</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>1116</v>
+        <v>1124</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO227" t="s" s="2">
-        <v>1117</v>
+        <v>1125</v>
       </c>
       <c r="AP227" t="s" s="2">
         <v>80</v>
@@ -31242,10 +31262,10 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
@@ -31271,13 +31291,13 @@
         <v>860</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>1119</v>
+        <v>1127</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>1120</v>
+        <v>1128</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>1121</v>
+        <v>1129</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -31327,7 +31347,7 @@
         <v>80</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>1118</v>
+        <v>1126</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>78</v>
@@ -31348,24 +31368,24 @@
         <v>80</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>1122</v>
+        <v>1130</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO228" t="s" s="2">
-        <v>1123</v>
+        <v>1131</v>
       </c>
       <c r="AP228" t="s" s="2">
-        <v>1124</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
@@ -31388,13 +31408,13 @@
         <v>80</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>1126</v>
+        <v>1134</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>1127</v>
+        <v>1135</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -31445,7 +31465,7 @@
         <v>80</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>1125</v>
+        <v>1133</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>78</v>
@@ -31466,24 +31486,24 @@
         <v>80</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>1128</v>
+        <v>1136</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO229" t="s" s="2">
-        <v>1129</v>
+        <v>1137</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>1130</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -31506,16 +31526,16 @@
         <v>80</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>1104</v>
+        <v>1112</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>1132</v>
+        <v>1140</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>1133</v>
+        <v>1141</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>1134</v>
+        <v>1142</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -31565,7 +31585,7 @@
         <v>80</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>1131</v>
+        <v>1139</v>
       </c>
       <c r="AG230" t="s" s="2">
         <v>78</v>
@@ -31586,13 +31606,13 @@
         <v>80</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>1135</v>
+        <v>1143</v>
       </c>
       <c r="AN230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO230" t="s" s="2">
-        <v>1136</v>
+        <v>1144</v>
       </c>
       <c r="AP230" t="s" s="2">
         <v>80</v>
@@ -31600,10 +31620,10 @@
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31629,10 +31649,10 @@
         <v>244</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>1138</v>
+        <v>1146</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>1139</v>
+        <v>1147</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -31683,7 +31703,7 @@
         <v>80</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>1137</v>
+        <v>1145</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -31710,7 +31730,7 @@
         <v>547</v>
       </c>
       <c r="AO231" t="s" s="2">
-        <v>1140</v>
+        <v>1148</v>
       </c>
       <c r="AP231" t="s" s="2">
         <v>80</v>
@@ -31718,10 +31738,10 @@
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31747,10 +31767,10 @@
         <v>575</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>1142</v>
+        <v>1150</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>1143</v>
+        <v>1151</v>
       </c>
       <c r="N232" s="2"/>
       <c r="O232" s="2"/>
@@ -31801,7 +31821,7 @@
         <v>80</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>1141</v>
+        <v>1149</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -31828,7 +31848,7 @@
         <v>80</v>
       </c>
       <c r="AO232" t="s" s="2">
-        <v>1144</v>
+        <v>1152</v>
       </c>
       <c r="AP232" t="s" s="2">
         <v>80</v>
@@ -31836,10 +31856,10 @@
     </row>
     <row r="233" hidden="true">
       <c r="A233" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="B233" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="C233" s="2"/>
       <c r="D233" t="s" s="2">
@@ -31865,10 +31885,10 @@
         <v>207</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" s="2"/>
@@ -31899,7 +31919,7 @@
       </c>
       <c r="Y233" s="2"/>
       <c r="Z233" t="s" s="2">
-        <v>1148</v>
+        <v>1156</v>
       </c>
       <c r="AA233" t="s" s="2">
         <v>80</v>
@@ -31917,7 +31937,7 @@
         <v>80</v>
       </c>
       <c r="AF233" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="AG233" t="s" s="2">
         <v>78</v>
@@ -31944,7 +31964,7 @@
         <v>80</v>
       </c>
       <c r="AO233" t="s" s="2">
-        <v>1149</v>
+        <v>1157</v>
       </c>
       <c r="AP233" t="s" s="2">
         <v>80</v>
@@ -31952,10 +31972,10 @@
     </row>
     <row r="234" hidden="true">
       <c r="A234" t="s" s="2">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -31978,13 +31998,13 @@
         <v>80</v>
       </c>
       <c r="K234" t="s" s="2">
-        <v>1082</v>
+        <v>1090</v>
       </c>
       <c r="L234" t="s" s="2">
-        <v>1151</v>
+        <v>1159</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>1152</v>
+        <v>1160</v>
       </c>
       <c r="N234" s="2"/>
       <c r="O234" s="2"/>
@@ -32035,7 +32055,7 @@
         <v>80</v>
       </c>
       <c r="AF234" t="s" s="2">
-        <v>1150</v>
+        <v>1158</v>
       </c>
       <c r="AG234" t="s" s="2">
         <v>78</v>
@@ -32050,19 +32070,19 @@
         <v>103</v>
       </c>
       <c r="AK234" t="s" s="2">
-        <v>1153</v>
+        <v>1161</v>
       </c>
       <c r="AL234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM234" t="s" s="2">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="AN234" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO234" t="s" s="2">
-        <v>1155</v>
+        <v>1163</v>
       </c>
       <c r="AP234" t="s" s="2">
         <v>80</v>
@@ -32070,10 +32090,10 @@
     </row>
     <row r="235" hidden="true">
       <c r="A235" t="s" s="2">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>1156</v>
+        <v>1164</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -32188,10 +32208,10 @@
     </row>
     <row r="236" hidden="true">
       <c r="A236" t="s" s="2">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>1157</v>
+        <v>1165</v>
       </c>
       <c r="C236" s="2"/>
       <c r="D236" t="s" s="2">
@@ -32308,10 +32328,10 @@
     </row>
     <row r="237" hidden="true">
       <c r="A237" t="s" s="2">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>1158</v>
+        <v>1166</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -32395,7 +32415,7 @@
         <v>80</v>
       </c>
       <c r="AF237" t="s" s="2">
-        <v>1090</v>
+        <v>1098</v>
       </c>
       <c r="AG237" t="s" s="2">
         <v>78</v>
@@ -32430,10 +32450,10 @@
     </row>
     <row r="238" hidden="true">
       <c r="A238" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -32456,16 +32476,16 @@
         <v>80</v>
       </c>
       <c r="K238" t="s" s="2">
-        <v>1160</v>
+        <v>1168</v>
       </c>
       <c r="L238" t="s" s="2">
-        <v>1161</v>
+        <v>1169</v>
       </c>
       <c r="M238" t="s" s="2">
-        <v>1162</v>
+        <v>1170</v>
       </c>
       <c r="N238" t="s" s="2">
-        <v>1163</v>
+        <v>1171</v>
       </c>
       <c r="O238" s="2"/>
       <c r="P238" t="s" s="2">
@@ -32494,10 +32514,10 @@
         <v>872</v>
       </c>
       <c r="Y238" t="s" s="2">
-        <v>1164</v>
+        <v>1172</v>
       </c>
       <c r="Z238" t="s" s="2">
-        <v>1165</v>
+        <v>1173</v>
       </c>
       <c r="AA238" t="s" s="2">
         <v>80</v>
@@ -32515,7 +32535,7 @@
         <v>80</v>
       </c>
       <c r="AF238" t="s" s="2">
-        <v>1159</v>
+        <v>1167</v>
       </c>
       <c r="AG238" t="s" s="2">
         <v>91</v>
@@ -32536,24 +32556,24 @@
         <v>80</v>
       </c>
       <c r="AM238" t="s" s="2">
-        <v>1154</v>
+        <v>1162</v>
       </c>
       <c r="AN238" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO238" t="s" s="2">
-        <v>1166</v>
+        <v>1174</v>
       </c>
       <c r="AP238" t="s" s="2">
-        <v>1167</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="239" hidden="true">
       <c r="A239" t="s" s="2">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -32579,10 +32599,10 @@
         <v>207</v>
       </c>
       <c r="L239" t="s" s="2">
-        <v>1169</v>
+        <v>1177</v>
       </c>
       <c r="M239" t="s" s="2">
-        <v>1170</v>
+        <v>1178</v>
       </c>
       <c r="N239" s="2"/>
       <c r="O239" s="2"/>
@@ -32612,10 +32632,10 @@
         <v>348</v>
       </c>
       <c r="Y239" t="s" s="2">
-        <v>1171</v>
+        <v>1179</v>
       </c>
       <c r="Z239" t="s" s="2">
-        <v>1172</v>
+        <v>1180</v>
       </c>
       <c r="AA239" t="s" s="2">
         <v>80</v>
@@ -32633,7 +32653,7 @@
         <v>80</v>
       </c>
       <c r="AF239" t="s" s="2">
-        <v>1168</v>
+        <v>1176</v>
       </c>
       <c r="AG239" t="s" s="2">
         <v>78</v>
@@ -32660,18 +32680,18 @@
         <v>80</v>
       </c>
       <c r="AO239" t="s" s="2">
-        <v>1173</v>
+        <v>1181</v>
       </c>
       <c r="AP239" t="s" s="2">
-        <v>1174</v>
+        <v>1182</v>
       </c>
     </row>
     <row r="240" hidden="true">
       <c r="A240" t="s" s="2">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -32694,16 +32714,16 @@
         <v>80</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>1176</v>
+        <v>1184</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>1177</v>
+        <v>1185</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>1178</v>
+        <v>1186</v>
       </c>
       <c r="N240" t="s" s="2">
-        <v>1179</v>
+        <v>1187</v>
       </c>
       <c r="O240" s="2"/>
       <c r="P240" t="s" s="2">
@@ -32753,7 +32773,7 @@
         <v>80</v>
       </c>
       <c r="AF240" t="s" s="2">
-        <v>1175</v>
+        <v>1183</v>
       </c>
       <c r="AG240" t="s" s="2">
         <v>78</v>
@@ -32771,7 +32791,7 @@
         <v>80</v>
       </c>
       <c r="AL240" t="s" s="2">
-        <v>1180</v>
+        <v>1188</v>
       </c>
       <c r="AM240" t="s" s="2">
         <v>80</v>
@@ -32780,7 +32800,7 @@
         <v>80</v>
       </c>
       <c r="AO240" t="s" s="2">
-        <v>1181</v>
+        <v>1189</v>
       </c>
       <c r="AP240" t="s" s="2">
         <v>80</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-04T08:55:54+00:00</t>
+    <t>2024-06-10T07:36:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$240</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AP$232</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9116" uniqueCount="1190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8814" uniqueCount="1167">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:07+00:00</t>
+    <t>2024-06-10T07:36:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -822,7 +822,7 @@
     <t>A plan or request that is fulfilled in whole or in part by this medication request.</t>
   </si>
   <si>
-    <t xml:space="preserve">type:item.resolve()}
+    <t xml:space="preserve">profile:resolve()}
 </t>
   </si>
   <si>
@@ -3170,75 +3170,6 @@
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.event</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:startEvent</t>
-  </si>
-  <si>
-    <t>startEvent</t>
-  </si>
-  <si>
-    <t>Type of event that triggers the start of a therapeutic phase</t>
-  </si>
-  <si>
-    <t>typeEvenementDebut</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:startEvent.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing.event.id</t>
-  </si>
-  <si>
-    <t>xml:id (or equivalent in JSON)</t>
-  </si>
-  <si>
-    <t>unique id for the element within a resource (for internal references)</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:startEvent.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing.event.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and managable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:startEvent.value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction.timing.event.value</t>
-  </si>
-  <si>
-    <t>Primitive value for dateTime</t>
-  </si>
-  <si>
-    <t>The actual value</t>
-  </si>
-  <si>
-    <t>dateTime.value</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:endEvent</t>
-  </si>
-  <si>
-    <t>endEvent</t>
-  </si>
-  <si>
-    <t>Type of event that triggers the end of a therapeutic phase</t>
-  </si>
-  <si>
-    <t>typeEvenementFin</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:endEvent.id</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:endEvent.extension</t>
-  </si>
-  <si>
-    <t>MedicationRequest.dosageInstruction:posology.timing.event:endEvent.value</t>
   </si>
   <si>
     <t>MedicationRequest.dosageInstruction:posology.timing.repeat</t>
@@ -4032,7 +3963,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AP240"/>
+  <dimension ref="A1:AP232"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -24675,11 +24606,9 @@
         <v>1008</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="C173" t="s" s="2">
-        <v>1009</v>
-      </c>
+        <v>730</v>
+      </c>
+      <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
         <v>80</v>
       </c>
@@ -24700,17 +24629,17 @@
         <v>92</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>354</v>
+        <v>731</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>1010</v>
+        <v>732</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>725</v>
+        <v>733</v>
       </c>
       <c r="N173" s="2"/>
       <c r="O173" t="s" s="2">
-        <v>726</v>
+        <v>734</v>
       </c>
       <c r="P173" t="s" s="2">
         <v>80</v>
@@ -24759,22 +24688,22 @@
         <v>80</v>
       </c>
       <c r="AF173" t="s" s="2">
-        <v>727</v>
+        <v>735</v>
       </c>
       <c r="AG173" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH173" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI173" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ173" t="s" s="2">
-        <v>103</v>
+        <v>736</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>1011</v>
+        <v>80</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>80</v>
@@ -24786,7 +24715,7 @@
         <v>80</v>
       </c>
       <c r="AO173" t="s" s="2">
-        <v>728</v>
+        <v>737</v>
       </c>
       <c r="AP173" t="s" s="2">
         <v>80</v>
@@ -24794,10 +24723,10 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>1012</v>
+        <v>1009</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>1013</v>
+        <v>739</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -24805,7 +24734,7 @@
       </c>
       <c r="E174" s="2"/>
       <c r="F174" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G174" t="s" s="2">
         <v>91</v>
@@ -24823,10 +24752,10 @@
         <v>227</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>1014</v>
+        <v>187</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>1015</v>
+        <v>188</v>
       </c>
       <c r="N174" s="2"/>
       <c r="O174" s="2"/>
@@ -24838,7 +24767,7 @@
         <v>80</v>
       </c>
       <c r="S174" t="s" s="2">
-        <v>1009</v>
+        <v>80</v>
       </c>
       <c r="T174" t="s" s="2">
         <v>80</v>
@@ -24886,7 +24815,7 @@
         <v>91</v>
       </c>
       <c r="AI174" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ174" t="s" s="2">
         <v>80</v>
@@ -24904,7 +24833,7 @@
         <v>80</v>
       </c>
       <c r="AO174" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AP174" t="s" s="2">
         <v>80</v>
@@ -24912,10 +24841,10 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>1016</v>
+        <v>1010</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>1017</v>
+        <v>741</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -24944,7 +24873,7 @@
         <v>193</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>1018</v>
+        <v>194</v>
       </c>
       <c r="N175" t="s" s="2">
         <v>172</v>
@@ -24985,16 +24914,16 @@
         <v>80</v>
       </c>
       <c r="AB175" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC175" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AD175" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>196</v>
@@ -25024,7 +24953,7 @@
         <v>80</v>
       </c>
       <c r="AO175" t="s" s="2">
-        <v>80</v>
+        <v>191</v>
       </c>
       <c r="AP175" t="s" s="2">
         <v>80</v>
@@ -25032,10 +24961,10 @@
     </row>
     <row r="176" hidden="true">
       <c r="A176" t="s" s="2">
-        <v>1019</v>
+        <v>1011</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>1020</v>
+        <v>743</v>
       </c>
       <c r="C176" s="2"/>
       <c r="D176" t="s" s="2">
@@ -25055,16 +24984,16 @@
         <v>80</v>
       </c>
       <c r="J176" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K176" t="s" s="2">
-        <v>354</v>
+        <v>744</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>1021</v>
+        <v>745</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>1022</v>
+        <v>746</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" s="2"/>
@@ -25115,7 +25044,7 @@
         <v>80</v>
       </c>
       <c r="AF176" t="s" s="2">
-        <v>1023</v>
+        <v>748</v>
       </c>
       <c r="AG176" t="s" s="2">
         <v>78</v>
@@ -25127,7 +25056,7 @@
         <v>80</v>
       </c>
       <c r="AJ176" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK176" t="s" s="2">
         <v>80</v>
@@ -25142,7 +25071,7 @@
         <v>80</v>
       </c>
       <c r="AO176" t="s" s="2">
-        <v>80</v>
+        <v>749</v>
       </c>
       <c r="AP176" t="s" s="2">
         <v>80</v>
@@ -25150,14 +25079,12 @@
     </row>
     <row r="177" hidden="true">
       <c r="A177" t="s" s="2">
-        <v>1024</v>
+        <v>1012</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>723</v>
-      </c>
-      <c r="C177" t="s" s="2">
-        <v>1025</v>
-      </c>
+        <v>765</v>
+      </c>
+      <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
         <v>80</v>
       </c>
@@ -25178,17 +25105,19 @@
         <v>92</v>
       </c>
       <c r="K177" t="s" s="2">
-        <v>354</v>
+        <v>766</v>
       </c>
       <c r="L177" t="s" s="2">
-        <v>1026</v>
+        <v>767</v>
       </c>
       <c r="M177" t="s" s="2">
-        <v>725</v>
-      </c>
-      <c r="N177" s="2"/>
+        <v>768</v>
+      </c>
+      <c r="N177" t="s" s="2">
+        <v>769</v>
+      </c>
       <c r="O177" t="s" s="2">
-        <v>726</v>
+        <v>770</v>
       </c>
       <c r="P177" t="s" s="2">
         <v>80</v>
@@ -25237,22 +25166,22 @@
         <v>80</v>
       </c>
       <c r="AF177" t="s" s="2">
-        <v>727</v>
+        <v>771</v>
       </c>
       <c r="AG177" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH177" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI177" t="s" s="2">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="AJ177" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK177" t="s" s="2">
-        <v>1027</v>
+        <v>80</v>
       </c>
       <c r="AL177" t="s" s="2">
         <v>80</v>
@@ -25264,7 +25193,7 @@
         <v>80</v>
       </c>
       <c r="AO177" t="s" s="2">
-        <v>728</v>
+        <v>773</v>
       </c>
       <c r="AP177" t="s" s="2">
         <v>80</v>
@@ -25272,10 +25201,10 @@
     </row>
     <row r="178" hidden="true">
       <c r="A178" t="s" s="2">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>1013</v>
+        <v>775</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -25283,7 +25212,7 @@
       </c>
       <c r="E178" s="2"/>
       <c r="F178" t="s" s="2">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="G178" t="s" s="2">
         <v>91</v>
@@ -25295,16 +25224,16 @@
         <v>80</v>
       </c>
       <c r="J178" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K178" t="s" s="2">
-        <v>227</v>
+        <v>766</v>
       </c>
       <c r="L178" t="s" s="2">
-        <v>1014</v>
+        <v>776</v>
       </c>
       <c r="M178" t="s" s="2">
-        <v>1015</v>
+        <v>777</v>
       </c>
       <c r="N178" s="2"/>
       <c r="O178" s="2"/>
@@ -25316,7 +25245,7 @@
         <v>80</v>
       </c>
       <c r="S178" t="s" s="2">
-        <v>1025</v>
+        <v>80</v>
       </c>
       <c r="T178" t="s" s="2">
         <v>80</v>
@@ -25355,7 +25284,7 @@
         <v>80</v>
       </c>
       <c r="AF178" t="s" s="2">
-        <v>189</v>
+        <v>778</v>
       </c>
       <c r="AG178" t="s" s="2">
         <v>78</v>
@@ -25364,10 +25293,10 @@
         <v>91</v>
       </c>
       <c r="AI178" t="s" s="2">
-        <v>80</v>
+        <v>772</v>
       </c>
       <c r="AJ178" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK178" t="s" s="2">
         <v>80</v>
@@ -25382,7 +25311,7 @@
         <v>80</v>
       </c>
       <c r="AO178" t="s" s="2">
-        <v>80</v>
+        <v>773</v>
       </c>
       <c r="AP178" t="s" s="2">
         <v>80</v>
@@ -25390,21 +25319,21 @@
     </row>
     <row r="179" hidden="true">
       <c r="A179" t="s" s="2">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>1017</v>
+        <v>780</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E179" s="2"/>
       <c r="F179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G179" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>80</v>
@@ -25413,21 +25342,23 @@
         <v>80</v>
       </c>
       <c r="J179" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K179" t="s" s="2">
-        <v>138</v>
+        <v>781</v>
       </c>
       <c r="L179" t="s" s="2">
-        <v>193</v>
+        <v>1015</v>
       </c>
       <c r="M179" t="s" s="2">
-        <v>1018</v>
+        <v>783</v>
       </c>
       <c r="N179" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O179" s="2"/>
+        <v>784</v>
+      </c>
+      <c r="O179" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="P179" t="s" s="2">
         <v>80</v>
       </c>
@@ -25475,22 +25406,22 @@
         <v>80</v>
       </c>
       <c r="AF179" t="s" s="2">
-        <v>196</v>
+        <v>786</v>
       </c>
       <c r="AG179" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH179" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI179" t="s" s="2">
-        <v>80</v>
+        <v>787</v>
       </c>
       <c r="AJ179" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK179" t="s" s="2">
-        <v>80</v>
+        <v>1016</v>
       </c>
       <c r="AL179" t="s" s="2">
         <v>80</v>
@@ -25502,7 +25433,7 @@
         <v>80</v>
       </c>
       <c r="AO179" t="s" s="2">
-        <v>80</v>
+        <v>788</v>
       </c>
       <c r="AP179" t="s" s="2">
         <v>80</v>
@@ -25510,10 +25441,10 @@
     </row>
     <row r="180" hidden="true">
       <c r="A180" t="s" s="2">
-        <v>1030</v>
+        <v>1017</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>1020</v>
+        <v>790</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -25533,19 +25464,23 @@
         <v>80</v>
       </c>
       <c r="J180" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K180" t="s" s="2">
-        <v>354</v>
+        <v>781</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>1021</v>
+        <v>791</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>1022</v>
-      </c>
-      <c r="N180" s="2"/>
-      <c r="O180" s="2"/>
+        <v>792</v>
+      </c>
+      <c r="N180" t="s" s="2">
+        <v>784</v>
+      </c>
+      <c r="O180" t="s" s="2">
+        <v>785</v>
+      </c>
       <c r="P180" t="s" s="2">
         <v>80</v>
       </c>
@@ -25593,7 +25528,7 @@
         <v>80</v>
       </c>
       <c r="AF180" t="s" s="2">
-        <v>1023</v>
+        <v>793</v>
       </c>
       <c r="AG180" t="s" s="2">
         <v>78</v>
@@ -25602,10 +25537,10 @@
         <v>91</v>
       </c>
       <c r="AI180" t="s" s="2">
-        <v>80</v>
+        <v>794</v>
       </c>
       <c r="AJ180" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK180" t="s" s="2">
         <v>80</v>
@@ -25620,7 +25555,7 @@
         <v>80</v>
       </c>
       <c r="AO180" t="s" s="2">
-        <v>80</v>
+        <v>788</v>
       </c>
       <c r="AP180" t="s" s="2">
         <v>80</v>
@@ -25628,10 +25563,10 @@
     </row>
     <row r="181" hidden="true">
       <c r="A181" t="s" s="2">
-        <v>1031</v>
+        <v>1018</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>730</v>
+        <v>796</v>
       </c>
       <c r="C181" s="2"/>
       <c r="D181" t="s" s="2">
@@ -25654,18 +25589,16 @@
         <v>92</v>
       </c>
       <c r="K181" t="s" s="2">
-        <v>731</v>
+        <v>111</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>732</v>
+        <v>797</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>733</v>
+        <v>798</v>
       </c>
       <c r="N181" s="2"/>
-      <c r="O181" t="s" s="2">
-        <v>734</v>
-      </c>
+      <c r="O181" s="2"/>
       <c r="P181" t="s" s="2">
         <v>80</v>
       </c>
@@ -25689,13 +25622,13 @@
         <v>80</v>
       </c>
       <c r="X181" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y181" t="s" s="2">
-        <v>80</v>
+        <v>799</v>
       </c>
       <c r="Z181" t="s" s="2">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="AA181" t="s" s="2">
         <v>80</v>
@@ -25713,7 +25646,7 @@
         <v>80</v>
       </c>
       <c r="AF181" t="s" s="2">
-        <v>735</v>
+        <v>801</v>
       </c>
       <c r="AG181" t="s" s="2">
         <v>78</v>
@@ -25722,10 +25655,10 @@
         <v>91</v>
       </c>
       <c r="AI181" t="s" s="2">
-        <v>80</v>
+        <v>802</v>
       </c>
       <c r="AJ181" t="s" s="2">
-        <v>736</v>
+        <v>103</v>
       </c>
       <c r="AK181" t="s" s="2">
         <v>80</v>
@@ -25740,7 +25673,7 @@
         <v>80</v>
       </c>
       <c r="AO181" t="s" s="2">
-        <v>737</v>
+        <v>803</v>
       </c>
       <c r="AP181" t="s" s="2">
         <v>80</v>
@@ -25748,10 +25681,10 @@
     </row>
     <row r="182" hidden="true">
       <c r="A182" t="s" s="2">
-        <v>1032</v>
+        <v>1019</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>739</v>
+        <v>805</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -25771,23 +25704,25 @@
         <v>80</v>
       </c>
       <c r="J182" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K182" t="s" s="2">
-        <v>227</v>
+        <v>766</v>
       </c>
       <c r="L182" t="s" s="2">
-        <v>187</v>
+        <v>1020</v>
       </c>
       <c r="M182" t="s" s="2">
-        <v>188</v>
+        <v>807</v>
       </c>
       <c r="N182" s="2"/>
       <c r="O182" s="2"/>
       <c r="P182" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q182" s="2"/>
+      <c r="Q182" t="s" s="2">
+        <v>808</v>
+      </c>
       <c r="R182" t="s" s="2">
         <v>80</v>
       </c>
@@ -25831,7 +25766,7 @@
         <v>80</v>
       </c>
       <c r="AF182" t="s" s="2">
-        <v>189</v>
+        <v>809</v>
       </c>
       <c r="AG182" t="s" s="2">
         <v>78</v>
@@ -25840,13 +25775,13 @@
         <v>91</v>
       </c>
       <c r="AI182" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ182" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK182" t="s" s="2">
-        <v>80</v>
+        <v>1021</v>
       </c>
       <c r="AL182" t="s" s="2">
         <v>80</v>
@@ -25858,7 +25793,7 @@
         <v>80</v>
       </c>
       <c r="AO182" t="s" s="2">
-        <v>191</v>
+        <v>788</v>
       </c>
       <c r="AP182" t="s" s="2">
         <v>80</v>
@@ -25866,21 +25801,21 @@
     </row>
     <row r="183" hidden="true">
       <c r="A183" t="s" s="2">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>741</v>
+        <v>811</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E183" s="2"/>
       <c r="F183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G183" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>80</v>
@@ -25889,20 +25824,18 @@
         <v>80</v>
       </c>
       <c r="J183" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K183" t="s" s="2">
-        <v>138</v>
+        <v>766</v>
       </c>
       <c r="L183" t="s" s="2">
-        <v>193</v>
+        <v>812</v>
       </c>
       <c r="M183" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N183" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>813</v>
+      </c>
+      <c r="N183" s="2"/>
       <c r="O183" s="2"/>
       <c r="P183" t="s" s="2">
         <v>80</v>
@@ -25939,31 +25872,31 @@
         <v>80</v>
       </c>
       <c r="AB183" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC183" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AD183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE183" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF183" t="s" s="2">
-        <v>196</v>
+        <v>814</v>
       </c>
       <c r="AG183" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH183" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI183" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ183" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK183" t="s" s="2">
         <v>80</v>
@@ -25978,7 +25911,7 @@
         <v>80</v>
       </c>
       <c r="AO183" t="s" s="2">
-        <v>191</v>
+        <v>788</v>
       </c>
       <c r="AP183" t="s" s="2">
         <v>80</v>
@@ -25986,10 +25919,10 @@
     </row>
     <row r="184" hidden="true">
       <c r="A184" t="s" s="2">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>743</v>
+        <v>816</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -26012,13 +25945,13 @@
         <v>92</v>
       </c>
       <c r="K184" t="s" s="2">
-        <v>744</v>
+        <v>781</v>
       </c>
       <c r="L184" t="s" s="2">
-        <v>745</v>
+        <v>817</v>
       </c>
       <c r="M184" t="s" s="2">
-        <v>746</v>
+        <v>818</v>
       </c>
       <c r="N184" s="2"/>
       <c r="O184" s="2"/>
@@ -26069,7 +26002,7 @@
         <v>80</v>
       </c>
       <c r="AF184" t="s" s="2">
-        <v>748</v>
+        <v>819</v>
       </c>
       <c r="AG184" t="s" s="2">
         <v>78</v>
@@ -26078,7 +26011,7 @@
         <v>91</v>
       </c>
       <c r="AI184" t="s" s="2">
-        <v>80</v>
+        <v>820</v>
       </c>
       <c r="AJ184" t="s" s="2">
         <v>103</v>
@@ -26096,7 +26029,7 @@
         <v>80</v>
       </c>
       <c r="AO184" t="s" s="2">
-        <v>749</v>
+        <v>788</v>
       </c>
       <c r="AP184" t="s" s="2">
         <v>80</v>
@@ -26104,10 +26037,10 @@
     </row>
     <row r="185" hidden="true">
       <c r="A185" t="s" s="2">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>765</v>
+        <v>822</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -26130,20 +26063,16 @@
         <v>92</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>766</v>
+        <v>781</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>767</v>
+        <v>823</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>768</v>
-      </c>
-      <c r="N185" t="s" s="2">
-        <v>769</v>
-      </c>
-      <c r="O185" t="s" s="2">
-        <v>770</v>
-      </c>
+        <v>824</v>
+      </c>
+      <c r="N185" s="2"/>
+      <c r="O185" s="2"/>
       <c r="P185" t="s" s="2">
         <v>80</v>
       </c>
@@ -26191,7 +26120,7 @@
         <v>80</v>
       </c>
       <c r="AF185" t="s" s="2">
-        <v>771</v>
+        <v>825</v>
       </c>
       <c r="AG185" t="s" s="2">
         <v>78</v>
@@ -26200,7 +26129,7 @@
         <v>91</v>
       </c>
       <c r="AI185" t="s" s="2">
-        <v>772</v>
+        <v>826</v>
       </c>
       <c r="AJ185" t="s" s="2">
         <v>103</v>
@@ -26218,7 +26147,7 @@
         <v>80</v>
       </c>
       <c r="AO185" t="s" s="2">
-        <v>773</v>
+        <v>788</v>
       </c>
       <c r="AP185" t="s" s="2">
         <v>80</v>
@@ -26226,10 +26155,10 @@
     </row>
     <row r="186" hidden="true">
       <c r="A186" t="s" s="2">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>775</v>
+        <v>828</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -26252,13 +26181,13 @@
         <v>92</v>
       </c>
       <c r="K186" t="s" s="2">
-        <v>766</v>
+        <v>111</v>
       </c>
       <c r="L186" t="s" s="2">
-        <v>776</v>
+        <v>797</v>
       </c>
       <c r="M186" t="s" s="2">
-        <v>777</v>
+        <v>829</v>
       </c>
       <c r="N186" s="2"/>
       <c r="O186" s="2"/>
@@ -26285,13 +26214,13 @@
         <v>80</v>
       </c>
       <c r="X186" t="s" s="2">
-        <v>80</v>
+        <v>115</v>
       </c>
       <c r="Y186" t="s" s="2">
-        <v>80</v>
+        <v>799</v>
       </c>
       <c r="Z186" t="s" s="2">
-        <v>80</v>
+        <v>800</v>
       </c>
       <c r="AA186" t="s" s="2">
         <v>80</v>
@@ -26309,7 +26238,7 @@
         <v>80</v>
       </c>
       <c r="AF186" t="s" s="2">
-        <v>778</v>
+        <v>830</v>
       </c>
       <c r="AG186" t="s" s="2">
         <v>78</v>
@@ -26318,7 +26247,7 @@
         <v>91</v>
       </c>
       <c r="AI186" t="s" s="2">
-        <v>772</v>
+        <v>831</v>
       </c>
       <c r="AJ186" t="s" s="2">
         <v>103</v>
@@ -26336,7 +26265,7 @@
         <v>80</v>
       </c>
       <c r="AO186" t="s" s="2">
-        <v>773</v>
+        <v>803</v>
       </c>
       <c r="AP186" t="s" s="2">
         <v>80</v>
@@ -26344,10 +26273,10 @@
     </row>
     <row r="187" hidden="true">
       <c r="A187" t="s" s="2">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>780</v>
+        <v>833</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -26358,7 +26287,7 @@
         <v>78</v>
       </c>
       <c r="G187" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H187" t="s" s="2">
         <v>80</v>
@@ -26370,20 +26299,18 @@
         <v>92</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>781</v>
+        <v>111</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>1038</v>
+        <v>834</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>783</v>
+        <v>835</v>
       </c>
       <c r="N187" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O187" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>836</v>
+      </c>
+      <c r="O187" s="2"/>
       <c r="P187" t="s" s="2">
         <v>80</v>
       </c>
@@ -26407,13 +26334,11 @@
         <v>80</v>
       </c>
       <c r="X187" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y187" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>115</v>
+      </c>
+      <c r="Y187" s="2"/>
       <c r="Z187" t="s" s="2">
-        <v>80</v>
+        <v>837</v>
       </c>
       <c r="AA187" t="s" s="2">
         <v>80</v>
@@ -26431,22 +26356,22 @@
         <v>80</v>
       </c>
       <c r="AF187" t="s" s="2">
-        <v>786</v>
+        <v>838</v>
       </c>
       <c r="AG187" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH187" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI187" t="s" s="2">
-        <v>787</v>
+        <v>80</v>
       </c>
       <c r="AJ187" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK187" t="s" s="2">
-        <v>1039</v>
+        <v>80</v>
       </c>
       <c r="AL187" t="s" s="2">
         <v>80</v>
@@ -26458,7 +26383,7 @@
         <v>80</v>
       </c>
       <c r="AO187" t="s" s="2">
-        <v>788</v>
+        <v>191</v>
       </c>
       <c r="AP187" t="s" s="2">
         <v>80</v>
@@ -26466,10 +26391,10 @@
     </row>
     <row r="188" hidden="true">
       <c r="A188" t="s" s="2">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="B188" t="s" s="2">
-        <v>790</v>
+        <v>840</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" t="s" s="2">
@@ -26480,7 +26405,7 @@
         <v>78</v>
       </c>
       <c r="G188" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H188" t="s" s="2">
         <v>80</v>
@@ -26492,20 +26417,18 @@
         <v>92</v>
       </c>
       <c r="K188" t="s" s="2">
-        <v>781</v>
+        <v>841</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>791</v>
+        <v>842</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>792</v>
+        <v>843</v>
       </c>
       <c r="N188" t="s" s="2">
-        <v>784</v>
-      </c>
-      <c r="O188" t="s" s="2">
-        <v>785</v>
-      </c>
+        <v>844</v>
+      </c>
+      <c r="O188" s="2"/>
       <c r="P188" t="s" s="2">
         <v>80</v>
       </c>
@@ -26553,16 +26476,16 @@
         <v>80</v>
       </c>
       <c r="AF188" t="s" s="2">
-        <v>793</v>
+        <v>845</v>
       </c>
       <c r="AG188" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH188" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI188" t="s" s="2">
-        <v>794</v>
+        <v>846</v>
       </c>
       <c r="AJ188" t="s" s="2">
         <v>103</v>
@@ -26580,7 +26503,7 @@
         <v>80</v>
       </c>
       <c r="AO188" t="s" s="2">
-        <v>788</v>
+        <v>191</v>
       </c>
       <c r="AP188" t="s" s="2">
         <v>80</v>
@@ -26588,10 +26511,10 @@
     </row>
     <row r="189" hidden="true">
       <c r="A189" t="s" s="2">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>796</v>
+        <v>848</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -26602,7 +26525,7 @@
         <v>78</v>
       </c>
       <c r="G189" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H189" t="s" s="2">
         <v>80</v>
@@ -26617,13 +26540,17 @@
         <v>111</v>
       </c>
       <c r="L189" t="s" s="2">
-        <v>797</v>
+        <v>849</v>
       </c>
       <c r="M189" t="s" s="2">
-        <v>798</v>
-      </c>
-      <c r="N189" s="2"/>
-      <c r="O189" s="2"/>
+        <v>850</v>
+      </c>
+      <c r="N189" t="s" s="2">
+        <v>851</v>
+      </c>
+      <c r="O189" t="s" s="2">
+        <v>852</v>
+      </c>
       <c r="P189" t="s" s="2">
         <v>80</v>
       </c>
@@ -26650,10 +26577,10 @@
         <v>115</v>
       </c>
       <c r="Y189" t="s" s="2">
-        <v>799</v>
+        <v>853</v>
       </c>
       <c r="Z189" t="s" s="2">
-        <v>800</v>
+        <v>854</v>
       </c>
       <c r="AA189" t="s" s="2">
         <v>80</v>
@@ -26671,16 +26598,16 @@
         <v>80</v>
       </c>
       <c r="AF189" t="s" s="2">
-        <v>801</v>
+        <v>855</v>
       </c>
       <c r="AG189" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH189" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI189" t="s" s="2">
-        <v>802</v>
+        <v>856</v>
       </c>
       <c r="AJ189" t="s" s="2">
         <v>103</v>
@@ -26698,7 +26625,7 @@
         <v>80</v>
       </c>
       <c r="AO189" t="s" s="2">
-        <v>803</v>
+        <v>857</v>
       </c>
       <c r="AP189" t="s" s="2">
         <v>80</v>
@@ -26706,10 +26633,10 @@
     </row>
     <row r="190" hidden="true">
       <c r="A190" t="s" s="2">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>805</v>
+        <v>859</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -26732,22 +26659,20 @@
         <v>92</v>
       </c>
       <c r="K190" t="s" s="2">
-        <v>766</v>
+        <v>860</v>
       </c>
       <c r="L190" t="s" s="2">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="M190" t="s" s="2">
-        <v>807</v>
+        <v>862</v>
       </c>
       <c r="N190" s="2"/>
       <c r="O190" s="2"/>
       <c r="P190" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="Q190" t="s" s="2">
-        <v>808</v>
-      </c>
+      <c r="Q190" s="2"/>
       <c r="R190" t="s" s="2">
         <v>80</v>
       </c>
@@ -26791,7 +26716,7 @@
         <v>80</v>
       </c>
       <c r="AF190" t="s" s="2">
-        <v>809</v>
+        <v>863</v>
       </c>
       <c r="AG190" t="s" s="2">
         <v>78</v>
@@ -26800,13 +26725,13 @@
         <v>91</v>
       </c>
       <c r="AI190" t="s" s="2">
-        <v>80</v>
+        <v>864</v>
       </c>
       <c r="AJ190" t="s" s="2">
         <v>103</v>
       </c>
       <c r="AK190" t="s" s="2">
-        <v>1044</v>
+        <v>80</v>
       </c>
       <c r="AL190" t="s" s="2">
         <v>80</v>
@@ -26818,7 +26743,7 @@
         <v>80</v>
       </c>
       <c r="AO190" t="s" s="2">
-        <v>788</v>
+        <v>866</v>
       </c>
       <c r="AP190" t="s" s="2">
         <v>80</v>
@@ -26826,10 +26751,10 @@
     </row>
     <row r="191" hidden="true">
       <c r="A191" t="s" s="2">
-        <v>1045</v>
+        <v>1031</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>811</v>
+        <v>868</v>
       </c>
       <c r="C191" s="2"/>
       <c r="D191" t="s" s="2">
@@ -26852,15 +26777,17 @@
         <v>92</v>
       </c>
       <c r="K191" t="s" s="2">
-        <v>766</v>
+        <v>207</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>812</v>
+        <v>869</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="N191" s="2"/>
+        <v>870</v>
+      </c>
+      <c r="N191" t="s" s="2">
+        <v>871</v>
+      </c>
       <c r="O191" s="2"/>
       <c r="P191" t="s" s="2">
         <v>80</v>
@@ -26885,13 +26812,13 @@
         <v>80</v>
       </c>
       <c r="X191" t="s" s="2">
-        <v>80</v>
+        <v>872</v>
       </c>
       <c r="Y191" t="s" s="2">
-        <v>80</v>
+        <v>873</v>
       </c>
       <c r="Z191" t="s" s="2">
-        <v>80</v>
+        <v>874</v>
       </c>
       <c r="AA191" t="s" s="2">
         <v>80</v>
@@ -26909,7 +26836,7 @@
         <v>80</v>
       </c>
       <c r="AF191" t="s" s="2">
-        <v>814</v>
+        <v>875</v>
       </c>
       <c r="AG191" t="s" s="2">
         <v>78</v>
@@ -26936,7 +26863,7 @@
         <v>80</v>
       </c>
       <c r="AO191" t="s" s="2">
-        <v>788</v>
+        <v>876</v>
       </c>
       <c r="AP191" t="s" s="2">
         <v>80</v>
@@ -26944,10 +26871,10 @@
     </row>
     <row r="192" hidden="true">
       <c r="A192" t="s" s="2">
-        <v>1046</v>
+        <v>1032</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>816</v>
+        <v>878</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -26970,15 +26897,17 @@
         <v>92</v>
       </c>
       <c r="K192" t="s" s="2">
-        <v>781</v>
+        <v>385</v>
       </c>
       <c r="L192" t="s" s="2">
-        <v>817</v>
+        <v>879</v>
       </c>
       <c r="M192" t="s" s="2">
-        <v>818</v>
-      </c>
-      <c r="N192" s="2"/>
+        <v>880</v>
+      </c>
+      <c r="N192" t="s" s="2">
+        <v>881</v>
+      </c>
       <c r="O192" s="2"/>
       <c r="P192" t="s" s="2">
         <v>80</v>
@@ -27027,7 +26956,7 @@
         <v>80</v>
       </c>
       <c r="AF192" t="s" s="2">
-        <v>819</v>
+        <v>882</v>
       </c>
       <c r="AG192" t="s" s="2">
         <v>78</v>
@@ -27036,7 +26965,7 @@
         <v>91</v>
       </c>
       <c r="AI192" t="s" s="2">
-        <v>820</v>
+        <v>883</v>
       </c>
       <c r="AJ192" t="s" s="2">
         <v>103</v>
@@ -27054,18 +26983,18 @@
         <v>80</v>
       </c>
       <c r="AO192" t="s" s="2">
-        <v>788</v>
+        <v>884</v>
       </c>
       <c r="AP192" t="s" s="2">
-        <v>80</v>
+        <v>885</v>
       </c>
     </row>
     <row r="193" hidden="true">
       <c r="A193" t="s" s="2">
-        <v>1047</v>
+        <v>1033</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>822</v>
+        <v>887</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -27076,7 +27005,7 @@
         <v>78</v>
       </c>
       <c r="G193" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H193" t="s" s="2">
         <v>80</v>
@@ -27088,15 +27017,17 @@
         <v>92</v>
       </c>
       <c r="K193" t="s" s="2">
-        <v>781</v>
+        <v>207</v>
       </c>
       <c r="L193" t="s" s="2">
-        <v>823</v>
+        <v>888</v>
       </c>
       <c r="M193" t="s" s="2">
-        <v>824</v>
-      </c>
-      <c r="N193" s="2"/>
+        <v>889</v>
+      </c>
+      <c r="N193" t="s" s="2">
+        <v>890</v>
+      </c>
       <c r="O193" s="2"/>
       <c r="P193" t="s" s="2">
         <v>80</v>
@@ -27121,13 +27052,13 @@
         <v>80</v>
       </c>
       <c r="X193" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y193" t="s" s="2">
-        <v>80</v>
+        <v>891</v>
       </c>
       <c r="Z193" t="s" s="2">
-        <v>80</v>
+        <v>892</v>
       </c>
       <c r="AA193" t="s" s="2">
         <v>80</v>
@@ -27145,16 +27076,16 @@
         <v>80</v>
       </c>
       <c r="AF193" t="s" s="2">
-        <v>825</v>
+        <v>893</v>
       </c>
       <c r="AG193" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH193" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI193" t="s" s="2">
-        <v>826</v>
+        <v>883</v>
       </c>
       <c r="AJ193" t="s" s="2">
         <v>103</v>
@@ -27172,18 +27103,18 @@
         <v>80</v>
       </c>
       <c r="AO193" t="s" s="2">
-        <v>788</v>
+        <v>884</v>
       </c>
       <c r="AP193" t="s" s="2">
-        <v>80</v>
+        <v>885</v>
       </c>
     </row>
     <row r="194" hidden="true">
       <c r="A194" t="s" s="2">
-        <v>1048</v>
+        <v>1034</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>828</v>
+        <v>895</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -27206,16 +27137,20 @@
         <v>92</v>
       </c>
       <c r="K194" t="s" s="2">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="L194" t="s" s="2">
-        <v>797</v>
+        <v>1035</v>
       </c>
       <c r="M194" t="s" s="2">
-        <v>829</v>
-      </c>
-      <c r="N194" s="2"/>
-      <c r="O194" s="2"/>
+        <v>897</v>
+      </c>
+      <c r="N194" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="O194" t="s" s="2">
+        <v>899</v>
+      </c>
       <c r="P194" t="s" s="2">
         <v>80</v>
       </c>
@@ -27239,13 +27174,13 @@
         <v>80</v>
       </c>
       <c r="X194" t="s" s="2">
-        <v>115</v>
+        <v>348</v>
       </c>
       <c r="Y194" t="s" s="2">
-        <v>799</v>
+        <v>900</v>
       </c>
       <c r="Z194" t="s" s="2">
-        <v>800</v>
+        <v>901</v>
       </c>
       <c r="AA194" t="s" s="2">
         <v>80</v>
@@ -27263,7 +27198,7 @@
         <v>80</v>
       </c>
       <c r="AF194" t="s" s="2">
-        <v>830</v>
+        <v>902</v>
       </c>
       <c r="AG194" t="s" s="2">
         <v>78</v>
@@ -27272,7 +27207,7 @@
         <v>91</v>
       </c>
       <c r="AI194" t="s" s="2">
-        <v>831</v>
+        <v>80</v>
       </c>
       <c r="AJ194" t="s" s="2">
         <v>103</v>
@@ -27290,18 +27225,18 @@
         <v>80</v>
       </c>
       <c r="AO194" t="s" s="2">
-        <v>803</v>
+        <v>904</v>
       </c>
       <c r="AP194" t="s" s="2">
-        <v>80</v>
+        <v>905</v>
       </c>
     </row>
     <row r="195" hidden="true">
       <c r="A195" t="s" s="2">
-        <v>1049</v>
+        <v>1036</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>833</v>
+        <v>907</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -27312,7 +27247,7 @@
         <v>78</v>
       </c>
       <c r="G195" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H195" t="s" s="2">
         <v>80</v>
@@ -27324,18 +27259,18 @@
         <v>92</v>
       </c>
       <c r="K195" t="s" s="2">
-        <v>111</v>
+        <v>207</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>834</v>
+        <v>1037</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>835</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>836</v>
-      </c>
-      <c r="O195" s="2"/>
+        <v>909</v>
+      </c>
+      <c r="N195" s="2"/>
+      <c r="O195" t="s" s="2">
+        <v>910</v>
+      </c>
       <c r="P195" t="s" s="2">
         <v>80</v>
       </c>
@@ -27359,11 +27294,13 @@
         <v>80</v>
       </c>
       <c r="X195" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="Y195" s="2"/>
+        <v>348</v>
+      </c>
+      <c r="Y195" t="s" s="2">
+        <v>1038</v>
+      </c>
       <c r="Z195" t="s" s="2">
-        <v>837</v>
+        <v>1039</v>
       </c>
       <c r="AA195" t="s" s="2">
         <v>80</v>
@@ -27381,13 +27318,13 @@
         <v>80</v>
       </c>
       <c r="AF195" t="s" s="2">
-        <v>838</v>
+        <v>912</v>
       </c>
       <c r="AG195" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH195" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI195" t="s" s="2">
         <v>80</v>
@@ -27408,18 +27345,18 @@
         <v>80</v>
       </c>
       <c r="AO195" t="s" s="2">
-        <v>191</v>
+        <v>914</v>
       </c>
       <c r="AP195" t="s" s="2">
-        <v>80</v>
+        <v>915</v>
       </c>
     </row>
     <row r="196" hidden="true">
       <c r="A196" t="s" s="2">
-        <v>1050</v>
+        <v>1040</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>840</v>
+        <v>917</v>
       </c>
       <c r="C196" s="2"/>
       <c r="D196" t="s" s="2">
@@ -27430,7 +27367,7 @@
         <v>78</v>
       </c>
       <c r="G196" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H196" t="s" s="2">
         <v>80</v>
@@ -27442,18 +27379,20 @@
         <v>92</v>
       </c>
       <c r="K196" t="s" s="2">
-        <v>841</v>
+        <v>207</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>842</v>
+        <v>1041</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>843</v>
+        <v>919</v>
       </c>
       <c r="N196" t="s" s="2">
-        <v>844</v>
-      </c>
-      <c r="O196" s="2"/>
+        <v>920</v>
+      </c>
+      <c r="O196" t="s" s="2">
+        <v>921</v>
+      </c>
       <c r="P196" t="s" s="2">
         <v>80</v>
       </c>
@@ -27477,13 +27416,13 @@
         <v>80</v>
       </c>
       <c r="X196" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y196" t="s" s="2">
-        <v>80</v>
+        <v>1042</v>
       </c>
       <c r="Z196" t="s" s="2">
-        <v>80</v>
+        <v>1043</v>
       </c>
       <c r="AA196" t="s" s="2">
         <v>80</v>
@@ -27501,16 +27440,16 @@
         <v>80</v>
       </c>
       <c r="AF196" t="s" s="2">
-        <v>845</v>
+        <v>923</v>
       </c>
       <c r="AG196" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH196" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI196" t="s" s="2">
-        <v>846</v>
+        <v>80</v>
       </c>
       <c r="AJ196" t="s" s="2">
         <v>103</v>
@@ -27528,18 +27467,18 @@
         <v>80</v>
       </c>
       <c r="AO196" t="s" s="2">
-        <v>191</v>
+        <v>925</v>
       </c>
       <c r="AP196" t="s" s="2">
-        <v>80</v>
+        <v>926</v>
       </c>
     </row>
     <row r="197" hidden="true">
       <c r="A197" t="s" s="2">
-        <v>1051</v>
+        <v>1044</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>848</v>
+        <v>928</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -27562,20 +27501,16 @@
         <v>92</v>
       </c>
       <c r="K197" t="s" s="2">
-        <v>111</v>
+        <v>731</v>
       </c>
       <c r="L197" t="s" s="2">
-        <v>849</v>
+        <v>929</v>
       </c>
       <c r="M197" t="s" s="2">
-        <v>850</v>
-      </c>
-      <c r="N197" t="s" s="2">
-        <v>851</v>
-      </c>
-      <c r="O197" t="s" s="2">
-        <v>852</v>
-      </c>
+        <v>930</v>
+      </c>
+      <c r="N197" s="2"/>
+      <c r="O197" s="2"/>
       <c r="P197" t="s" s="2">
         <v>80</v>
       </c>
@@ -27599,13 +27534,13 @@
         <v>80</v>
       </c>
       <c r="X197" t="s" s="2">
-        <v>115</v>
+        <v>80</v>
       </c>
       <c r="Y197" t="s" s="2">
-        <v>853</v>
+        <v>80</v>
       </c>
       <c r="Z197" t="s" s="2">
-        <v>854</v>
+        <v>80</v>
       </c>
       <c r="AA197" t="s" s="2">
         <v>80</v>
@@ -27623,7 +27558,7 @@
         <v>80</v>
       </c>
       <c r="AF197" t="s" s="2">
-        <v>855</v>
+        <v>931</v>
       </c>
       <c r="AG197" t="s" s="2">
         <v>78</v>
@@ -27632,7 +27567,7 @@
         <v>79</v>
       </c>
       <c r="AI197" t="s" s="2">
-        <v>856</v>
+        <v>80</v>
       </c>
       <c r="AJ197" t="s" s="2">
         <v>103</v>
@@ -27650,18 +27585,18 @@
         <v>80</v>
       </c>
       <c r="AO197" t="s" s="2">
-        <v>857</v>
+        <v>932</v>
       </c>
       <c r="AP197" t="s" s="2">
-        <v>80</v>
+        <v>933</v>
       </c>
     </row>
     <row r="198" hidden="true">
       <c r="A198" t="s" s="2">
-        <v>1052</v>
+        <v>1045</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>859</v>
+        <v>935</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -27681,16 +27616,16 @@
         <v>80</v>
       </c>
       <c r="J198" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K198" t="s" s="2">
-        <v>860</v>
+        <v>227</v>
       </c>
       <c r="L198" t="s" s="2">
-        <v>1053</v>
+        <v>187</v>
       </c>
       <c r="M198" t="s" s="2">
-        <v>862</v>
+        <v>188</v>
       </c>
       <c r="N198" s="2"/>
       <c r="O198" s="2"/>
@@ -27741,7 +27676,7 @@
         <v>80</v>
       </c>
       <c r="AF198" t="s" s="2">
-        <v>863</v>
+        <v>189</v>
       </c>
       <c r="AG198" t="s" s="2">
         <v>78</v>
@@ -27750,10 +27685,10 @@
         <v>91</v>
       </c>
       <c r="AI198" t="s" s="2">
-        <v>864</v>
+        <v>190</v>
       </c>
       <c r="AJ198" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK198" t="s" s="2">
         <v>80</v>
@@ -27768,7 +27703,7 @@
         <v>80</v>
       </c>
       <c r="AO198" t="s" s="2">
-        <v>866</v>
+        <v>191</v>
       </c>
       <c r="AP198" t="s" s="2">
         <v>80</v>
@@ -27776,21 +27711,21 @@
     </row>
     <row r="199" hidden="true">
       <c r="A199" t="s" s="2">
-        <v>1054</v>
+        <v>1046</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>868</v>
+        <v>937</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E199" s="2"/>
       <c r="F199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G199" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H199" t="s" s="2">
         <v>80</v>
@@ -27799,19 +27734,19 @@
         <v>80</v>
       </c>
       <c r="J199" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K199" t="s" s="2">
-        <v>207</v>
+        <v>138</v>
       </c>
       <c r="L199" t="s" s="2">
-        <v>869</v>
+        <v>193</v>
       </c>
       <c r="M199" t="s" s="2">
-        <v>870</v>
+        <v>194</v>
       </c>
       <c r="N199" t="s" s="2">
-        <v>871</v>
+        <v>172</v>
       </c>
       <c r="O199" s="2"/>
       <c r="P199" t="s" s="2">
@@ -27837,43 +27772,43 @@
         <v>80</v>
       </c>
       <c r="X199" t="s" s="2">
-        <v>872</v>
+        <v>80</v>
       </c>
       <c r="Y199" t="s" s="2">
-        <v>873</v>
+        <v>80</v>
       </c>
       <c r="Z199" t="s" s="2">
-        <v>874</v>
+        <v>80</v>
       </c>
       <c r="AA199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB199" t="s" s="2">
-        <v>80</v>
+        <v>141</v>
       </c>
       <c r="AC199" t="s" s="2">
-        <v>80</v>
+        <v>195</v>
       </c>
       <c r="AD199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE199" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF199" t="s" s="2">
-        <v>875</v>
+        <v>196</v>
       </c>
       <c r="AG199" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH199" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI199" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ199" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK199" t="s" s="2">
         <v>80</v>
@@ -27888,7 +27823,7 @@
         <v>80</v>
       </c>
       <c r="AO199" t="s" s="2">
-        <v>876</v>
+        <v>191</v>
       </c>
       <c r="AP199" t="s" s="2">
         <v>80</v>
@@ -27896,10 +27831,10 @@
     </row>
     <row r="200" hidden="true">
       <c r="A200" t="s" s="2">
-        <v>1055</v>
+        <v>1047</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>878</v>
+        <v>939</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -27922,18 +27857,18 @@
         <v>92</v>
       </c>
       <c r="K200" t="s" s="2">
-        <v>385</v>
+        <v>207</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>879</v>
+        <v>940</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="N200" t="s" s="2">
-        <v>881</v>
-      </c>
-      <c r="O200" s="2"/>
+        <v>941</v>
+      </c>
+      <c r="N200" s="2"/>
+      <c r="O200" t="s" s="2">
+        <v>942</v>
+      </c>
       <c r="P200" t="s" s="2">
         <v>80</v>
       </c>
@@ -27957,13 +27892,13 @@
         <v>80</v>
       </c>
       <c r="X200" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y200" t="s" s="2">
-        <v>80</v>
+        <v>943</v>
       </c>
       <c r="Z200" t="s" s="2">
-        <v>80</v>
+        <v>944</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>80</v>
@@ -27981,7 +27916,7 @@
         <v>80</v>
       </c>
       <c r="AF200" t="s" s="2">
-        <v>882</v>
+        <v>945</v>
       </c>
       <c r="AG200" t="s" s="2">
         <v>78</v>
@@ -27990,7 +27925,7 @@
         <v>91</v>
       </c>
       <c r="AI200" t="s" s="2">
-        <v>883</v>
+        <v>80</v>
       </c>
       <c r="AJ200" t="s" s="2">
         <v>103</v>
@@ -28008,18 +27943,18 @@
         <v>80</v>
       </c>
       <c r="AO200" t="s" s="2">
-        <v>884</v>
+        <v>80</v>
       </c>
       <c r="AP200" t="s" s="2">
-        <v>885</v>
+        <v>946</v>
       </c>
     </row>
     <row r="201" hidden="true">
       <c r="A201" t="s" s="2">
-        <v>1056</v>
+        <v>1048</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>887</v>
+        <v>948</v>
       </c>
       <c r="C201" s="2"/>
       <c r="D201" t="s" s="2">
@@ -28030,7 +27965,7 @@
         <v>78</v>
       </c>
       <c r="G201" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H201" t="s" s="2">
         <v>80</v>
@@ -28042,18 +27977,20 @@
         <v>92</v>
       </c>
       <c r="K201" t="s" s="2">
-        <v>207</v>
+        <v>949</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>888</v>
+        <v>950</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>889</v>
+        <v>951</v>
       </c>
       <c r="N201" t="s" s="2">
-        <v>890</v>
-      </c>
-      <c r="O201" s="2"/>
+        <v>952</v>
+      </c>
+      <c r="O201" t="s" s="2">
+        <v>953</v>
+      </c>
       <c r="P201" t="s" s="2">
         <v>80</v>
       </c>
@@ -28077,40 +28014,38 @@
         <v>80</v>
       </c>
       <c r="X201" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y201" t="s" s="2">
-        <v>891</v>
+        <v>80</v>
       </c>
       <c r="Z201" t="s" s="2">
-        <v>892</v>
+        <v>80</v>
       </c>
       <c r="AA201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB201" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC201" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="AC201" s="2"/>
       <c r="AD201" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE201" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF201" t="s" s="2">
-        <v>893</v>
+        <v>954</v>
       </c>
       <c r="AG201" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH201" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI201" t="s" s="2">
-        <v>883</v>
+        <v>80</v>
       </c>
       <c r="AJ201" t="s" s="2">
         <v>103</v>
@@ -28128,20 +28063,22 @@
         <v>80</v>
       </c>
       <c r="AO201" t="s" s="2">
-        <v>884</v>
+        <v>955</v>
       </c>
       <c r="AP201" t="s" s="2">
-        <v>885</v>
+        <v>956</v>
       </c>
     </row>
     <row r="202" hidden="true">
       <c r="A202" t="s" s="2">
-        <v>1057</v>
+        <v>1049</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>895</v>
-      </c>
-      <c r="C202" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="C202" t="s" s="2">
+        <v>1050</v>
+      </c>
       <c r="D202" t="s" s="2">
         <v>80</v>
       </c>
@@ -28159,22 +28096,22 @@
         <v>80</v>
       </c>
       <c r="J202" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K202" t="s" s="2">
-        <v>207</v>
+        <v>979</v>
       </c>
       <c r="L202" t="s" s="2">
-        <v>1058</v>
+        <v>1051</v>
       </c>
       <c r="M202" t="s" s="2">
-        <v>897</v>
+        <v>1052</v>
       </c>
       <c r="N202" t="s" s="2">
-        <v>898</v>
+        <v>1053</v>
       </c>
       <c r="O202" t="s" s="2">
-        <v>899</v>
+        <v>953</v>
       </c>
       <c r="P202" t="s" s="2">
         <v>80</v>
@@ -28199,13 +28136,13 @@
         <v>80</v>
       </c>
       <c r="X202" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y202" t="s" s="2">
-        <v>900</v>
+        <v>80</v>
       </c>
       <c r="Z202" t="s" s="2">
-        <v>901</v>
+        <v>80</v>
       </c>
       <c r="AA202" t="s" s="2">
         <v>80</v>
@@ -28223,7 +28160,7 @@
         <v>80</v>
       </c>
       <c r="AF202" t="s" s="2">
-        <v>902</v>
+        <v>954</v>
       </c>
       <c r="AG202" t="s" s="2">
         <v>78</v>
@@ -28235,10 +28172,10 @@
         <v>80</v>
       </c>
       <c r="AJ202" t="s" s="2">
-        <v>103</v>
+        <v>1054</v>
       </c>
       <c r="AK202" t="s" s="2">
-        <v>80</v>
+        <v>1055</v>
       </c>
       <c r="AL202" t="s" s="2">
         <v>80</v>
@@ -28250,18 +28187,18 @@
         <v>80</v>
       </c>
       <c r="AO202" t="s" s="2">
-        <v>904</v>
+        <v>1056</v>
       </c>
       <c r="AP202" t="s" s="2">
-        <v>905</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="203" hidden="true">
       <c r="A203" t="s" s="2">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>907</v>
+        <v>958</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -28284,17 +28221,19 @@
         <v>92</v>
       </c>
       <c r="K203" t="s" s="2">
-        <v>207</v>
+        <v>959</v>
       </c>
       <c r="L203" t="s" s="2">
-        <v>1060</v>
+        <v>960</v>
       </c>
       <c r="M203" t="s" s="2">
-        <v>909</v>
-      </c>
-      <c r="N203" s="2"/>
+        <v>961</v>
+      </c>
+      <c r="N203" t="s" s="2">
+        <v>962</v>
+      </c>
       <c r="O203" t="s" s="2">
-        <v>910</v>
+        <v>963</v>
       </c>
       <c r="P203" t="s" s="2">
         <v>80</v>
@@ -28319,31 +28258,29 @@
         <v>80</v>
       </c>
       <c r="X203" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y203" t="s" s="2">
-        <v>1061</v>
+        <v>80</v>
       </c>
       <c r="Z203" t="s" s="2">
-        <v>1062</v>
+        <v>80</v>
       </c>
       <c r="AA203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AB203" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC203" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>747</v>
+      </c>
+      <c r="AC203" s="2"/>
       <c r="AD203" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE203" t="s" s="2">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="AF203" t="s" s="2">
-        <v>912</v>
+        <v>964</v>
       </c>
       <c r="AG203" t="s" s="2">
         <v>78</v>
@@ -28370,20 +28307,22 @@
         <v>80</v>
       </c>
       <c r="AO203" t="s" s="2">
-        <v>914</v>
+        <v>965</v>
       </c>
       <c r="AP203" t="s" s="2">
-        <v>915</v>
+        <v>966</v>
       </c>
     </row>
     <row r="204" hidden="true">
       <c r="A204" t="s" s="2">
-        <v>1063</v>
+        <v>1059</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>917</v>
-      </c>
-      <c r="C204" s="2"/>
+        <v>958</v>
+      </c>
+      <c r="C204" t="s" s="2">
+        <v>1060</v>
+      </c>
       <c r="D204" t="s" s="2">
         <v>80</v>
       </c>
@@ -28401,22 +28340,22 @@
         <v>80</v>
       </c>
       <c r="J204" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K204" t="s" s="2">
-        <v>207</v>
+        <v>979</v>
       </c>
       <c r="L204" t="s" s="2">
-        <v>1064</v>
+        <v>1061</v>
       </c>
       <c r="M204" t="s" s="2">
-        <v>919</v>
+        <v>1052</v>
       </c>
       <c r="N204" t="s" s="2">
-        <v>920</v>
+        <v>1053</v>
       </c>
       <c r="O204" t="s" s="2">
-        <v>921</v>
+        <v>963</v>
       </c>
       <c r="P204" t="s" s="2">
         <v>80</v>
@@ -28441,13 +28380,13 @@
         <v>80</v>
       </c>
       <c r="X204" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y204" t="s" s="2">
-        <v>1065</v>
+        <v>80</v>
       </c>
       <c r="Z204" t="s" s="2">
-        <v>1066</v>
+        <v>80</v>
       </c>
       <c r="AA204" t="s" s="2">
         <v>80</v>
@@ -28465,7 +28404,7 @@
         <v>80</v>
       </c>
       <c r="AF204" t="s" s="2">
-        <v>923</v>
+        <v>964</v>
       </c>
       <c r="AG204" t="s" s="2">
         <v>78</v>
@@ -28477,10 +28416,10 @@
         <v>80</v>
       </c>
       <c r="AJ204" t="s" s="2">
-        <v>103</v>
+        <v>1054</v>
       </c>
       <c r="AK204" t="s" s="2">
-        <v>80</v>
+        <v>1062</v>
       </c>
       <c r="AL204" t="s" s="2">
         <v>80</v>
@@ -28492,18 +28431,18 @@
         <v>80</v>
       </c>
       <c r="AO204" t="s" s="2">
-        <v>925</v>
+        <v>1056</v>
       </c>
       <c r="AP204" t="s" s="2">
-        <v>926</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="205" hidden="true">
       <c r="A205" t="s" s="2">
-        <v>1067</v>
+        <v>1063</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>928</v>
+        <v>968</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -28526,16 +28465,20 @@
         <v>92</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>731</v>
+        <v>969</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>929</v>
+        <v>970</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>930</v>
-      </c>
-      <c r="N205" s="2"/>
-      <c r="O205" s="2"/>
+        <v>971</v>
+      </c>
+      <c r="N205" t="s" s="2">
+        <v>972</v>
+      </c>
+      <c r="O205" t="s" s="2">
+        <v>973</v>
+      </c>
       <c r="P205" t="s" s="2">
         <v>80</v>
       </c>
@@ -28583,7 +28526,7 @@
         <v>80</v>
       </c>
       <c r="AF205" t="s" s="2">
-        <v>931</v>
+        <v>974</v>
       </c>
       <c r="AG205" t="s" s="2">
         <v>78</v>
@@ -28610,18 +28553,18 @@
         <v>80</v>
       </c>
       <c r="AO205" t="s" s="2">
-        <v>932</v>
+        <v>975</v>
       </c>
       <c r="AP205" t="s" s="2">
-        <v>933</v>
+        <v>976</v>
       </c>
     </row>
     <row r="206" hidden="true">
       <c r="A206" t="s" s="2">
-        <v>1068</v>
+        <v>1064</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>935</v>
+        <v>978</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -28641,19 +28584,23 @@
         <v>80</v>
       </c>
       <c r="J206" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K206" t="s" s="2">
-        <v>227</v>
+        <v>979</v>
       </c>
       <c r="L206" t="s" s="2">
-        <v>187</v>
+        <v>980</v>
       </c>
       <c r="M206" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N206" s="2"/>
-      <c r="O206" s="2"/>
+        <v>981</v>
+      </c>
+      <c r="N206" t="s" s="2">
+        <v>982</v>
+      </c>
+      <c r="O206" t="s" s="2">
+        <v>983</v>
+      </c>
       <c r="P206" t="s" s="2">
         <v>80</v>
       </c>
@@ -28701,7 +28648,7 @@
         <v>80</v>
       </c>
       <c r="AF206" t="s" s="2">
-        <v>189</v>
+        <v>984</v>
       </c>
       <c r="AG206" t="s" s="2">
         <v>78</v>
@@ -28710,10 +28657,10 @@
         <v>91</v>
       </c>
       <c r="AI206" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ206" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK206" t="s" s="2">
         <v>80</v>
@@ -28728,7 +28675,7 @@
         <v>80</v>
       </c>
       <c r="AO206" t="s" s="2">
-        <v>191</v>
+        <v>985</v>
       </c>
       <c r="AP206" t="s" s="2">
         <v>80</v>
@@ -28736,21 +28683,21 @@
     </row>
     <row r="207" hidden="true">
       <c r="A207" t="s" s="2">
-        <v>1069</v>
+        <v>1065</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>937</v>
+        <v>987</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E207" s="2"/>
       <c r="F207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G207" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H207" t="s" s="2">
         <v>80</v>
@@ -28759,21 +28706,21 @@
         <v>80</v>
       </c>
       <c r="J207" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>138</v>
+        <v>979</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>193</v>
+        <v>988</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N207" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O207" s="2"/>
+        <v>989</v>
+      </c>
+      <c r="N207" s="2"/>
+      <c r="O207" t="s" s="2">
+        <v>990</v>
+      </c>
       <c r="P207" t="s" s="2">
         <v>80</v>
       </c>
@@ -28809,31 +28756,31 @@
         <v>80</v>
       </c>
       <c r="AB207" t="s" s="2">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="AC207" t="s" s="2">
-        <v>195</v>
+        <v>80</v>
       </c>
       <c r="AD207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE207" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF207" t="s" s="2">
-        <v>196</v>
+        <v>991</v>
       </c>
       <c r="AG207" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH207" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI207" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ207" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK207" t="s" s="2">
         <v>80</v>
@@ -28848,7 +28795,7 @@
         <v>80</v>
       </c>
       <c r="AO207" t="s" s="2">
-        <v>191</v>
+        <v>985</v>
       </c>
       <c r="AP207" t="s" s="2">
         <v>80</v>
@@ -28856,10 +28803,10 @@
     </row>
     <row r="208" hidden="true">
       <c r="A208" t="s" s="2">
-        <v>1070</v>
+        <v>1066</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>939</v>
+        <v>1066</v>
       </c>
       <c r="C208" s="2"/>
       <c r="D208" t="s" s="2">
@@ -28879,21 +28826,19 @@
         <v>80</v>
       </c>
       <c r="J208" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K208" t="s" s="2">
-        <v>207</v>
+        <v>1067</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>940</v>
+        <v>1068</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>941</v>
+        <v>1069</v>
       </c>
       <c r="N208" s="2"/>
-      <c r="O208" t="s" s="2">
-        <v>942</v>
-      </c>
+      <c r="O208" s="2"/>
       <c r="P208" t="s" s="2">
         <v>80</v>
       </c>
@@ -28917,13 +28862,13 @@
         <v>80</v>
       </c>
       <c r="X208" t="s" s="2">
-        <v>348</v>
+        <v>80</v>
       </c>
       <c r="Y208" t="s" s="2">
-        <v>943</v>
+        <v>80</v>
       </c>
       <c r="Z208" t="s" s="2">
-        <v>944</v>
+        <v>80</v>
       </c>
       <c r="AA208" t="s" s="2">
         <v>80</v>
@@ -28941,7 +28886,7 @@
         <v>80</v>
       </c>
       <c r="AF208" t="s" s="2">
-        <v>945</v>
+        <v>1066</v>
       </c>
       <c r="AG208" t="s" s="2">
         <v>78</v>
@@ -28962,24 +28907,24 @@
         <v>80</v>
       </c>
       <c r="AM208" t="s" s="2">
-        <v>80</v>
+        <v>1070</v>
       </c>
       <c r="AN208" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO208" t="s" s="2">
-        <v>80</v>
+        <v>1071</v>
       </c>
       <c r="AP208" t="s" s="2">
-        <v>946</v>
+        <v>80</v>
       </c>
     </row>
     <row r="209" hidden="true">
       <c r="A209" t="s" s="2">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>948</v>
+        <v>1072</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -28999,23 +28944,19 @@
         <v>80</v>
       </c>
       <c r="J209" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K209" t="s" s="2">
-        <v>949</v>
+        <v>227</v>
       </c>
       <c r="L209" t="s" s="2">
-        <v>950</v>
+        <v>187</v>
       </c>
       <c r="M209" t="s" s="2">
-        <v>951</v>
-      </c>
-      <c r="N209" t="s" s="2">
-        <v>952</v>
-      </c>
-      <c r="O209" t="s" s="2">
-        <v>953</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N209" s="2"/>
+      <c r="O209" s="2"/>
       <c r="P209" t="s" s="2">
         <v>80</v>
       </c>
@@ -29051,17 +28992,19 @@
         <v>80</v>
       </c>
       <c r="AB209" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AC209" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC209" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD209" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE209" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF209" t="s" s="2">
-        <v>954</v>
+        <v>189</v>
       </c>
       <c r="AG209" t="s" s="2">
         <v>78</v>
@@ -29070,10 +29013,10 @@
         <v>91</v>
       </c>
       <c r="AI209" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ209" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK209" t="s" s="2">
         <v>80</v>
@@ -29088,31 +29031,29 @@
         <v>80</v>
       </c>
       <c r="AO209" t="s" s="2">
-        <v>955</v>
+        <v>191</v>
       </c>
       <c r="AP209" t="s" s="2">
-        <v>956</v>
+        <v>80</v>
       </c>
     </row>
     <row r="210" hidden="true">
       <c r="A210" t="s" s="2">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>948</v>
-      </c>
-      <c r="C210" t="s" s="2">
         <v>1073</v>
       </c>
+      <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E210" s="2"/>
       <c r="F210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G210" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H210" t="s" s="2">
         <v>80</v>
@@ -29124,20 +29065,18 @@
         <v>80</v>
       </c>
       <c r="K210" t="s" s="2">
-        <v>979</v>
+        <v>138</v>
       </c>
       <c r="L210" t="s" s="2">
-        <v>1074</v>
+        <v>193</v>
       </c>
       <c r="M210" t="s" s="2">
-        <v>1075</v>
+        <v>194</v>
       </c>
       <c r="N210" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="O210" t="s" s="2">
-        <v>953</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O210" s="2"/>
       <c r="P210" t="s" s="2">
         <v>80</v>
       </c>
@@ -29185,22 +29124,22 @@
         <v>80</v>
       </c>
       <c r="AF210" t="s" s="2">
-        <v>954</v>
+        <v>196</v>
       </c>
       <c r="AG210" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH210" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI210" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ210" t="s" s="2">
-        <v>1077</v>
+        <v>144</v>
       </c>
       <c r="AK210" t="s" s="2">
-        <v>1078</v>
+        <v>80</v>
       </c>
       <c r="AL210" t="s" s="2">
         <v>80</v>
@@ -29212,53 +29151,53 @@
         <v>80</v>
       </c>
       <c r="AO210" t="s" s="2">
-        <v>1079</v>
+        <v>191</v>
       </c>
       <c r="AP210" t="s" s="2">
-        <v>1080</v>
+        <v>80</v>
       </c>
     </row>
     <row r="211" hidden="true">
       <c r="A211" t="s" s="2">
-        <v>1081</v>
+        <v>1074</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>958</v>
+        <v>1074</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="E211" s="2"/>
       <c r="F211" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G211" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I211" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J211" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K211" t="s" s="2">
-        <v>959</v>
+        <v>138</v>
       </c>
       <c r="L211" t="s" s="2">
-        <v>960</v>
+        <v>671</v>
       </c>
       <c r="M211" t="s" s="2">
-        <v>961</v>
+        <v>672</v>
       </c>
       <c r="N211" t="s" s="2">
-        <v>962</v>
+        <v>172</v>
       </c>
       <c r="O211" t="s" s="2">
-        <v>963</v>
+        <v>173</v>
       </c>
       <c r="P211" t="s" s="2">
         <v>80</v>
@@ -29295,29 +29234,31 @@
         <v>80</v>
       </c>
       <c r="AB211" t="s" s="2">
-        <v>747</v>
-      </c>
-      <c r="AC211" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="AC211" t="s" s="2">
+        <v>80</v>
+      </c>
       <c r="AD211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AE211" t="s" s="2">
-        <v>142</v>
+        <v>80</v>
       </c>
       <c r="AF211" t="s" s="2">
-        <v>964</v>
+        <v>1075</v>
       </c>
       <c r="AG211" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH211" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI211" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ211" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK211" t="s" s="2">
         <v>80</v>
@@ -29332,22 +29273,20 @@
         <v>80</v>
       </c>
       <c r="AO211" t="s" s="2">
-        <v>965</v>
+        <v>136</v>
       </c>
       <c r="AP211" t="s" s="2">
-        <v>966</v>
+        <v>80</v>
       </c>
     </row>
     <row r="212" hidden="true">
       <c r="A212" t="s" s="2">
-        <v>1082</v>
+        <v>1076</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>958</v>
-      </c>
-      <c r="C212" t="s" s="2">
-        <v>1083</v>
-      </c>
+        <v>1076</v>
+      </c>
+      <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
         <v>80</v>
       </c>
@@ -29368,20 +29307,18 @@
         <v>80</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>979</v>
+        <v>1067</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>1084</v>
+        <v>1077</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>1075</v>
+        <v>1078</v>
       </c>
       <c r="N212" t="s" s="2">
-        <v>1076</v>
-      </c>
-      <c r="O212" t="s" s="2">
-        <v>963</v>
-      </c>
+        <v>1079</v>
+      </c>
+      <c r="O212" s="2"/>
       <c r="P212" t="s" s="2">
         <v>80</v>
       </c>
@@ -29429,7 +29366,7 @@
         <v>80</v>
       </c>
       <c r="AF212" t="s" s="2">
-        <v>964</v>
+        <v>1076</v>
       </c>
       <c r="AG212" t="s" s="2">
         <v>78</v>
@@ -29441,10 +29378,10 @@
         <v>80</v>
       </c>
       <c r="AJ212" t="s" s="2">
-        <v>1077</v>
+        <v>103</v>
       </c>
       <c r="AK212" t="s" s="2">
-        <v>1085</v>
+        <v>80</v>
       </c>
       <c r="AL212" t="s" s="2">
         <v>80</v>
@@ -29456,18 +29393,18 @@
         <v>80</v>
       </c>
       <c r="AO212" t="s" s="2">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="AP212" t="s" s="2">
-        <v>1080</v>
+        <v>80</v>
       </c>
     </row>
     <row r="213" hidden="true">
       <c r="A213" t="s" s="2">
-        <v>1086</v>
+        <v>1081</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>968</v>
+        <v>1081</v>
       </c>
       <c r="C213" s="2"/>
       <c r="D213" t="s" s="2">
@@ -29478,7 +29415,7 @@
         <v>78</v>
       </c>
       <c r="G213" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H213" t="s" s="2">
         <v>80</v>
@@ -29487,23 +29424,19 @@
         <v>80</v>
       </c>
       <c r="J213" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K213" t="s" s="2">
-        <v>969</v>
+        <v>227</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>970</v>
+        <v>187</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>971</v>
-      </c>
-      <c r="N213" t="s" s="2">
-        <v>972</v>
-      </c>
-      <c r="O213" t="s" s="2">
-        <v>973</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N213" s="2"/>
+      <c r="O213" s="2"/>
       <c r="P213" t="s" s="2">
         <v>80</v>
       </c>
@@ -29551,19 +29484,19 @@
         <v>80</v>
       </c>
       <c r="AF213" t="s" s="2">
-        <v>974</v>
+        <v>189</v>
       </c>
       <c r="AG213" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH213" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI213" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ213" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK213" t="s" s="2">
         <v>80</v>
@@ -29578,29 +29511,29 @@
         <v>80</v>
       </c>
       <c r="AO213" t="s" s="2">
-        <v>975</v>
+        <v>191</v>
       </c>
       <c r="AP213" t="s" s="2">
-        <v>976</v>
+        <v>80</v>
       </c>
     </row>
     <row r="214" hidden="true">
       <c r="A214" t="s" s="2">
-        <v>1087</v>
+        <v>1082</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>978</v>
+        <v>1082</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E214" s="2"/>
       <c r="F214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G214" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H214" t="s" s="2">
         <v>80</v>
@@ -29609,23 +29542,21 @@
         <v>80</v>
       </c>
       <c r="J214" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K214" t="s" s="2">
-        <v>979</v>
+        <v>138</v>
       </c>
       <c r="L214" t="s" s="2">
-        <v>980</v>
+        <v>193</v>
       </c>
       <c r="M214" t="s" s="2">
-        <v>981</v>
+        <v>194</v>
       </c>
       <c r="N214" t="s" s="2">
-        <v>982</v>
-      </c>
-      <c r="O214" t="s" s="2">
-        <v>983</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="O214" s="2"/>
       <c r="P214" t="s" s="2">
         <v>80</v>
       </c>
@@ -29673,19 +29604,19 @@
         <v>80</v>
       </c>
       <c r="AF214" t="s" s="2">
-        <v>984</v>
+        <v>196</v>
       </c>
       <c r="AG214" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH214" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI214" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ214" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK214" t="s" s="2">
         <v>80</v>
@@ -29700,7 +29631,7 @@
         <v>80</v>
       </c>
       <c r="AO214" t="s" s="2">
-        <v>985</v>
+        <v>191</v>
       </c>
       <c r="AP214" t="s" s="2">
         <v>80</v>
@@ -29708,43 +29639,45 @@
     </row>
     <row r="215" hidden="true">
       <c r="A215" t="s" s="2">
-        <v>1088</v>
+        <v>1083</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>987</v>
+        <v>1083</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="E215" s="2"/>
       <c r="F215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G215" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I215" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J215" t="s" s="2">
         <v>92</v>
       </c>
       <c r="K215" t="s" s="2">
-        <v>979</v>
+        <v>138</v>
       </c>
       <c r="L215" t="s" s="2">
-        <v>988</v>
+        <v>671</v>
       </c>
       <c r="M215" t="s" s="2">
-        <v>989</v>
-      </c>
-      <c r="N215" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N215" t="s" s="2">
+        <v>172</v>
+      </c>
       <c r="O215" t="s" s="2">
-        <v>990</v>
+        <v>173</v>
       </c>
       <c r="P215" t="s" s="2">
         <v>80</v>
@@ -29793,19 +29726,19 @@
         <v>80</v>
       </c>
       <c r="AF215" t="s" s="2">
-        <v>991</v>
+        <v>1075</v>
       </c>
       <c r="AG215" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH215" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI215" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ215" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK215" t="s" s="2">
         <v>80</v>
@@ -29820,7 +29753,7 @@
         <v>80</v>
       </c>
       <c r="AO215" t="s" s="2">
-        <v>985</v>
+        <v>136</v>
       </c>
       <c r="AP215" t="s" s="2">
         <v>80</v>
@@ -29828,10 +29761,10 @@
     </row>
     <row r="216" hidden="true">
       <c r="A216" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -29854,13 +29787,13 @@
         <v>80</v>
       </c>
       <c r="K216" t="s" s="2">
-        <v>1090</v>
+        <v>979</v>
       </c>
       <c r="L216" t="s" s="2">
-        <v>1091</v>
+        <v>1085</v>
       </c>
       <c r="M216" t="s" s="2">
-        <v>1092</v>
+        <v>1086</v>
       </c>
       <c r="N216" s="2"/>
       <c r="O216" s="2"/>
@@ -29911,7 +29844,7 @@
         <v>80</v>
       </c>
       <c r="AF216" t="s" s="2">
-        <v>1089</v>
+        <v>1084</v>
       </c>
       <c r="AG216" t="s" s="2">
         <v>78</v>
@@ -29932,13 +29865,13 @@
         <v>80</v>
       </c>
       <c r="AM216" t="s" s="2">
-        <v>1093</v>
+        <v>80</v>
       </c>
       <c r="AN216" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO216" t="s" s="2">
-        <v>1094</v>
+        <v>1087</v>
       </c>
       <c r="AP216" t="s" s="2">
         <v>80</v>
@@ -29946,10 +29879,10 @@
     </row>
     <row r="217" hidden="true">
       <c r="A217" t="s" s="2">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>1095</v>
+        <v>1088</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -29972,13 +29905,13 @@
         <v>80</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>227</v>
+        <v>1089</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>187</v>
+        <v>1090</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>188</v>
+        <v>1091</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -30029,7 +29962,7 @@
         <v>80</v>
       </c>
       <c r="AF217" t="s" s="2">
-        <v>189</v>
+        <v>1088</v>
       </c>
       <c r="AG217" t="s" s="2">
         <v>78</v>
@@ -30038,10 +29971,10 @@
         <v>91</v>
       </c>
       <c r="AI217" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ217" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK217" t="s" s="2">
         <v>80</v>
@@ -30056,7 +29989,7 @@
         <v>80</v>
       </c>
       <c r="AO217" t="s" s="2">
-        <v>191</v>
+        <v>1092</v>
       </c>
       <c r="AP217" t="s" s="2">
         <v>80</v>
@@ -30064,21 +29997,21 @@
     </row>
     <row r="218" hidden="true">
       <c r="A218" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>1096</v>
+        <v>1093</v>
       </c>
       <c r="C218" s="2"/>
       <c r="D218" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E218" s="2"/>
       <c r="F218" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G218" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H218" t="s" s="2">
         <v>80</v>
@@ -30090,17 +30023,15 @@
         <v>80</v>
       </c>
       <c r="K218" t="s" s="2">
-        <v>138</v>
+        <v>1089</v>
       </c>
       <c r="L218" t="s" s="2">
-        <v>193</v>
+        <v>1094</v>
       </c>
       <c r="M218" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>172</v>
-      </c>
+        <v>1095</v>
+      </c>
+      <c r="N218" s="2"/>
       <c r="O218" s="2"/>
       <c r="P218" t="s" s="2">
         <v>80</v>
@@ -30149,19 +30080,19 @@
         <v>80</v>
       </c>
       <c r="AF218" t="s" s="2">
-        <v>196</v>
+        <v>1093</v>
       </c>
       <c r="AG218" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH218" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI218" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ218" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK218" t="s" s="2">
         <v>80</v>
@@ -30176,7 +30107,7 @@
         <v>80</v>
       </c>
       <c r="AO218" t="s" s="2">
-        <v>191</v>
+        <v>1092</v>
       </c>
       <c r="AP218" t="s" s="2">
         <v>80</v>
@@ -30184,45 +30115,45 @@
     </row>
     <row r="219" hidden="true">
       <c r="A219" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="E219" s="2"/>
       <c r="F219" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G219" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I219" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J219" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K219" t="s" s="2">
-        <v>138</v>
+        <v>237</v>
       </c>
       <c r="L219" t="s" s="2">
-        <v>671</v>
+        <v>1097</v>
       </c>
       <c r="M219" t="s" s="2">
-        <v>672</v>
+        <v>1098</v>
       </c>
       <c r="N219" t="s" s="2">
-        <v>172</v>
+        <v>1099</v>
       </c>
       <c r="O219" t="s" s="2">
-        <v>173</v>
+        <v>1100</v>
       </c>
       <c r="P219" t="s" s="2">
         <v>80</v>
@@ -30271,19 +30202,19 @@
         <v>80</v>
       </c>
       <c r="AF219" t="s" s="2">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="AG219" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH219" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ219" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK219" t="s" s="2">
         <v>80</v>
@@ -30292,13 +30223,13 @@
         <v>80</v>
       </c>
       <c r="AM219" t="s" s="2">
-        <v>80</v>
+        <v>1101</v>
       </c>
       <c r="AN219" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO219" t="s" s="2">
-        <v>136</v>
+        <v>1102</v>
       </c>
       <c r="AP219" t="s" s="2">
         <v>80</v>
@@ -30306,10 +30237,10 @@
     </row>
     <row r="220" hidden="true">
       <c r="A220" t="s" s="2">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -30332,16 +30263,16 @@
         <v>80</v>
       </c>
       <c r="K220" t="s" s="2">
-        <v>1090</v>
+        <v>860</v>
       </c>
       <c r="L220" t="s" s="2">
-        <v>1100</v>
+        <v>1104</v>
       </c>
       <c r="M220" t="s" s="2">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="N220" t="s" s="2">
-        <v>1102</v>
+        <v>1106</v>
       </c>
       <c r="O220" s="2"/>
       <c r="P220" t="s" s="2">
@@ -30391,7 +30322,7 @@
         <v>80</v>
       </c>
       <c r="AF220" t="s" s="2">
-        <v>1099</v>
+        <v>1103</v>
       </c>
       <c r="AG220" t="s" s="2">
         <v>78</v>
@@ -30412,24 +30343,24 @@
         <v>80</v>
       </c>
       <c r="AM220" t="s" s="2">
-        <v>80</v>
+        <v>1107</v>
       </c>
       <c r="AN220" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO220" t="s" s="2">
-        <v>1103</v>
+        <v>1108</v>
       </c>
       <c r="AP220" t="s" s="2">
-        <v>80</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="221" hidden="true">
       <c r="A221" t="s" s="2">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>1104</v>
+        <v>1110</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -30452,13 +30383,13 @@
         <v>80</v>
       </c>
       <c r="K221" t="s" s="2">
-        <v>227</v>
+        <v>979</v>
       </c>
       <c r="L221" t="s" s="2">
-        <v>187</v>
+        <v>1111</v>
       </c>
       <c r="M221" t="s" s="2">
-        <v>188</v>
+        <v>1112</v>
       </c>
       <c r="N221" s="2"/>
       <c r="O221" s="2"/>
@@ -30509,7 +30440,7 @@
         <v>80</v>
       </c>
       <c r="AF221" t="s" s="2">
-        <v>189</v>
+        <v>1110</v>
       </c>
       <c r="AG221" t="s" s="2">
         <v>78</v>
@@ -30518,10 +30449,10 @@
         <v>91</v>
       </c>
       <c r="AI221" t="s" s="2">
-        <v>190</v>
+        <v>80</v>
       </c>
       <c r="AJ221" t="s" s="2">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="AK221" t="s" s="2">
         <v>80</v>
@@ -30530,35 +30461,35 @@
         <v>80</v>
       </c>
       <c r="AM221" t="s" s="2">
-        <v>80</v>
+        <v>1113</v>
       </c>
       <c r="AN221" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO221" t="s" s="2">
-        <v>191</v>
+        <v>1114</v>
       </c>
       <c r="AP221" t="s" s="2">
-        <v>80</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="222" hidden="true">
       <c r="A222" t="s" s="2">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>1105</v>
+        <v>1116</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="E222" s="2"/>
       <c r="F222" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G222" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H222" t="s" s="2">
         <v>80</v>
@@ -30570,16 +30501,16 @@
         <v>80</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>138</v>
+        <v>1089</v>
       </c>
       <c r="L222" t="s" s="2">
-        <v>193</v>
+        <v>1117</v>
       </c>
       <c r="M222" t="s" s="2">
-        <v>194</v>
+        <v>1118</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>172</v>
+        <v>1119</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -30629,19 +30560,19 @@
         <v>80</v>
       </c>
       <c r="AF222" t="s" s="2">
-        <v>196</v>
+        <v>1116</v>
       </c>
       <c r="AG222" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH222" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ222" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK222" t="s" s="2">
         <v>80</v>
@@ -30650,13 +30581,13 @@
         <v>80</v>
       </c>
       <c r="AM222" t="s" s="2">
-        <v>80</v>
+        <v>1120</v>
       </c>
       <c r="AN222" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO222" t="s" s="2">
-        <v>191</v>
+        <v>1121</v>
       </c>
       <c r="AP222" t="s" s="2">
         <v>80</v>
@@ -30664,46 +30595,42 @@
     </row>
     <row r="223" hidden="true">
       <c r="A223" t="s" s="2">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>1106</v>
+        <v>1122</v>
       </c>
       <c r="C223" s="2"/>
       <c r="D223" t="s" s="2">
-        <v>670</v>
+        <v>80</v>
       </c>
       <c r="E223" s="2"/>
       <c r="F223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G223" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="H223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I223" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="J223" t="s" s="2">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="K223" t="s" s="2">
-        <v>138</v>
+        <v>244</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>671</v>
+        <v>1123</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O223" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>1124</v>
+      </c>
+      <c r="N223" s="2"/>
+      <c r="O223" s="2"/>
       <c r="P223" t="s" s="2">
         <v>80</v>
       </c>
@@ -30751,19 +30678,19 @@
         <v>80</v>
       </c>
       <c r="AF223" t="s" s="2">
-        <v>1098</v>
+        <v>1122</v>
       </c>
       <c r="AG223" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH223" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="AI223" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ223" t="s" s="2">
-        <v>144</v>
+        <v>103</v>
       </c>
       <c r="AK223" t="s" s="2">
         <v>80</v>
@@ -30775,10 +30702,10 @@
         <v>80</v>
       </c>
       <c r="AN223" t="s" s="2">
-        <v>80</v>
+        <v>547</v>
       </c>
       <c r="AO223" t="s" s="2">
-        <v>136</v>
+        <v>1125</v>
       </c>
       <c r="AP223" t="s" s="2">
         <v>80</v>
@@ -30786,10 +30713,10 @@
     </row>
     <row r="224" hidden="true">
       <c r="A224" t="s" s="2">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -30800,7 +30727,7 @@
         <v>78</v>
       </c>
       <c r="G224" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H224" t="s" s="2">
         <v>80</v>
@@ -30812,13 +30739,13 @@
         <v>80</v>
       </c>
       <c r="K224" t="s" s="2">
-        <v>979</v>
+        <v>575</v>
       </c>
       <c r="L224" t="s" s="2">
-        <v>1108</v>
+        <v>1127</v>
       </c>
       <c r="M224" t="s" s="2">
-        <v>1109</v>
+        <v>1128</v>
       </c>
       <c r="N224" s="2"/>
       <c r="O224" s="2"/>
@@ -30869,13 +30796,13 @@
         <v>80</v>
       </c>
       <c r="AF224" t="s" s="2">
-        <v>1107</v>
+        <v>1126</v>
       </c>
       <c r="AG224" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH224" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI224" t="s" s="2">
         <v>80</v>
@@ -30896,7 +30823,7 @@
         <v>80</v>
       </c>
       <c r="AO224" t="s" s="2">
-        <v>1110</v>
+        <v>1129</v>
       </c>
       <c r="AP224" t="s" s="2">
         <v>80</v>
@@ -30904,10 +30831,10 @@
     </row>
     <row r="225" hidden="true">
       <c r="A225" t="s" s="2">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -30930,13 +30857,13 @@
         <v>80</v>
       </c>
       <c r="K225" t="s" s="2">
-        <v>1112</v>
+        <v>207</v>
       </c>
       <c r="L225" t="s" s="2">
-        <v>1113</v>
+        <v>1131</v>
       </c>
       <c r="M225" t="s" s="2">
-        <v>1114</v>
+        <v>1132</v>
       </c>
       <c r="N225" s="2"/>
       <c r="O225" s="2"/>
@@ -30963,13 +30890,11 @@
         <v>80</v>
       </c>
       <c r="X225" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y225" t="s" s="2">
-        <v>80</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="Y225" s="2"/>
       <c r="Z225" t="s" s="2">
-        <v>80</v>
+        <v>1133</v>
       </c>
       <c r="AA225" t="s" s="2">
         <v>80</v>
@@ -30987,7 +30912,7 @@
         <v>80</v>
       </c>
       <c r="AF225" t="s" s="2">
-        <v>1111</v>
+        <v>1130</v>
       </c>
       <c r="AG225" t="s" s="2">
         <v>78</v>
@@ -31014,7 +30939,7 @@
         <v>80</v>
       </c>
       <c r="AO225" t="s" s="2">
-        <v>1115</v>
+        <v>1134</v>
       </c>
       <c r="AP225" t="s" s="2">
         <v>80</v>
@@ -31022,10 +30947,10 @@
     </row>
     <row r="226" hidden="true">
       <c r="A226" t="s" s="2">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -31039,7 +30964,7 @@
         <v>91</v>
       </c>
       <c r="H226" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="I226" t="s" s="2">
         <v>80</v>
@@ -31048,13 +30973,13 @@
         <v>80</v>
       </c>
       <c r="K226" t="s" s="2">
-        <v>1112</v>
+        <v>1067</v>
       </c>
       <c r="L226" t="s" s="2">
-        <v>1117</v>
+        <v>1136</v>
       </c>
       <c r="M226" t="s" s="2">
-        <v>1118</v>
+        <v>1137</v>
       </c>
       <c r="N226" s="2"/>
       <c r="O226" s="2"/>
@@ -31105,7 +31030,7 @@
         <v>80</v>
       </c>
       <c r="AF226" t="s" s="2">
-        <v>1116</v>
+        <v>1135</v>
       </c>
       <c r="AG226" t="s" s="2">
         <v>78</v>
@@ -31120,19 +31045,19 @@
         <v>103</v>
       </c>
       <c r="AK226" t="s" s="2">
-        <v>80</v>
+        <v>1138</v>
       </c>
       <c r="AL226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AM226" t="s" s="2">
-        <v>80</v>
+        <v>1139</v>
       </c>
       <c r="AN226" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO226" t="s" s="2">
-        <v>1115</v>
+        <v>1140</v>
       </c>
       <c r="AP226" t="s" s="2">
         <v>80</v>
@@ -31140,10 +31065,10 @@
     </row>
     <row r="227" hidden="true">
       <c r="A227" t="s" s="2">
-        <v>1119</v>
+        <v>1141</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1119</v>
+        <v>1141</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -31166,20 +31091,16 @@
         <v>80</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>1120</v>
+        <v>187</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>1121</v>
-      </c>
-      <c r="N227" t="s" s="2">
-        <v>1122</v>
-      </c>
-      <c r="O227" t="s" s="2">
-        <v>1123</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="N227" s="2"/>
+      <c r="O227" s="2"/>
       <c r="P227" t="s" s="2">
         <v>80</v>
       </c>
@@ -31227,7 +31148,7 @@
         <v>80</v>
       </c>
       <c r="AF227" t="s" s="2">
-        <v>1119</v>
+        <v>189</v>
       </c>
       <c r="AG227" t="s" s="2">
         <v>78</v>
@@ -31236,10 +31157,10 @@
         <v>91</v>
       </c>
       <c r="AI227" t="s" s="2">
-        <v>80</v>
+        <v>190</v>
       </c>
       <c r="AJ227" t="s" s="2">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="AK227" t="s" s="2">
         <v>80</v>
@@ -31248,13 +31169,13 @@
         <v>80</v>
       </c>
       <c r="AM227" t="s" s="2">
-        <v>1124</v>
+        <v>80</v>
       </c>
       <c r="AN227" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO227" t="s" s="2">
-        <v>1125</v>
+        <v>191</v>
       </c>
       <c r="AP227" t="s" s="2">
         <v>80</v>
@@ -31262,21 +31183,21 @@
     </row>
     <row r="228" hidden="true">
       <c r="A228" t="s" s="2">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1126</v>
+        <v>1142</v>
       </c>
       <c r="C228" s="2"/>
       <c r="D228" t="s" s="2">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="E228" s="2"/>
       <c r="F228" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G228" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H228" t="s" s="2">
         <v>80</v>
@@ -31288,16 +31209,16 @@
         <v>80</v>
       </c>
       <c r="K228" t="s" s="2">
-        <v>860</v>
+        <v>138</v>
       </c>
       <c r="L228" t="s" s="2">
-        <v>1127</v>
+        <v>193</v>
       </c>
       <c r="M228" t="s" s="2">
-        <v>1128</v>
+        <v>194</v>
       </c>
       <c r="N228" t="s" s="2">
-        <v>1129</v>
+        <v>172</v>
       </c>
       <c r="O228" s="2"/>
       <c r="P228" t="s" s="2">
@@ -31347,19 +31268,19 @@
         <v>80</v>
       </c>
       <c r="AF228" t="s" s="2">
-        <v>1126</v>
+        <v>196</v>
       </c>
       <c r="AG228" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH228" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ228" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK228" t="s" s="2">
         <v>80</v>
@@ -31368,56 +31289,60 @@
         <v>80</v>
       </c>
       <c r="AM228" t="s" s="2">
-        <v>1130</v>
+        <v>80</v>
       </c>
       <c r="AN228" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO228" t="s" s="2">
-        <v>1131</v>
+        <v>191</v>
       </c>
       <c r="AP228" t="s" s="2">
-        <v>1132</v>
+        <v>80</v>
       </c>
     </row>
     <row r="229" hidden="true">
       <c r="A229" t="s" s="2">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="B229" t="s" s="2">
-        <v>1133</v>
+        <v>1143</v>
       </c>
       <c r="C229" s="2"/>
       <c r="D229" t="s" s="2">
-        <v>80</v>
+        <v>670</v>
       </c>
       <c r="E229" s="2"/>
       <c r="F229" t="s" s="2">
         <v>78</v>
       </c>
       <c r="G229" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="H229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="I229" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J229" t="s" s="2">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>979</v>
+        <v>138</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>1134</v>
+        <v>671</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>1135</v>
-      </c>
-      <c r="N229" s="2"/>
-      <c r="O229" s="2"/>
+        <v>672</v>
+      </c>
+      <c r="N229" t="s" s="2">
+        <v>172</v>
+      </c>
+      <c r="O229" t="s" s="2">
+        <v>173</v>
+      </c>
       <c r="P229" t="s" s="2">
         <v>80</v>
       </c>
@@ -31465,19 +31390,19 @@
         <v>80</v>
       </c>
       <c r="AF229" t="s" s="2">
-        <v>1133</v>
+        <v>1075</v>
       </c>
       <c r="AG229" t="s" s="2">
         <v>78</v>
       </c>
       <c r="AH229" t="s" s="2">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="AI229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AJ229" t="s" s="2">
-        <v>103</v>
+        <v>144</v>
       </c>
       <c r="AK229" t="s" s="2">
         <v>80</v>
@@ -31486,24 +31411,24 @@
         <v>80</v>
       </c>
       <c r="AM229" t="s" s="2">
-        <v>1136</v>
+        <v>80</v>
       </c>
       <c r="AN229" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO229" t="s" s="2">
-        <v>1137</v>
+        <v>136</v>
       </c>
       <c r="AP229" t="s" s="2">
-        <v>1138</v>
+        <v>80</v>
       </c>
     </row>
     <row r="230" hidden="true">
       <c r="A230" t="s" s="2">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="C230" s="2"/>
       <c r="D230" t="s" s="2">
@@ -31511,7 +31436,7 @@
       </c>
       <c r="E230" s="2"/>
       <c r="F230" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="G230" t="s" s="2">
         <v>91</v>
@@ -31526,16 +31451,16 @@
         <v>80</v>
       </c>
       <c r="K230" t="s" s="2">
-        <v>1112</v>
+        <v>1145</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>1140</v>
+        <v>1146</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>1141</v>
+        <v>1147</v>
       </c>
       <c r="N230" t="s" s="2">
-        <v>1142</v>
+        <v>1148</v>
       </c>
       <c r="O230" s="2"/>
       <c r="P230" t="s" s="2">
@@ -31561,13 +31486,13 @@
         <v>80</v>
       </c>
       <c r="X230" t="s" s="2">
-        <v>80</v>
+        <v>872</v>
       </c>
       <c r="Y230" t="s" s="2">
-        <v>80</v>
+        <v>1149</v>
       </c>
       <c r="Z230" t="s" s="2">
-        <v>80</v>
+        <v>1150</v>
       </c>
       <c r="AA230" t="s" s="2">
         <v>80</v>
@@ -31585,10 +31510,10 @@
         <v>80</v>
       </c>
       <c r="AF230" t="s" s="2">
-        <v>1139</v>
+        <v>1144</v>
       </c>
       <c r="AG230" t="s" s="2">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="AH230" t="s" s="2">
         <v>91</v>
@@ -31606,24 +31531,24 @@
         <v>80</v>
       </c>
       <c r="AM230" t="s" s="2">
-        <v>1143</v>
+        <v>1139</v>
       </c>
       <c r="AN230" t="s" s="2">
         <v>80</v>
       </c>
       <c r="AO230" t="s" s="2">
-        <v>1144</v>
+        <v>1151</v>
       </c>
       <c r="AP230" t="s" s="2">
-        <v>80</v>
+        <v>1152</v>
       </c>
     </row>
     <row r="231" hidden="true">
       <c r="A231" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="B231" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="C231" s="2"/>
       <c r="D231" t="s" s="2">
@@ -31646,13 +31571,13 @@
         <v>80</v>
       </c>
       <c r="K231" t="s" s="2">
-        <v>244</v>
+        <v>207</v>
       </c>
       <c r="L231" t="s" s="2">
-        <v>1146</v>
+        <v>1154</v>
       </c>
       <c r="M231" t="s" s="2">
-        <v>1147</v>
+        <v>1155</v>
       </c>
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
@@ -31679,13 +31604,13 @@
         <v>80</v>
       </c>
       <c r="X231" t="s" s="2">
-        <v>80</v>
+        <v>348</v>
       </c>
       <c r="Y231" t="s" s="2">
-        <v>80</v>
+        <v>1156</v>
       </c>
       <c r="Z231" t="s" s="2">
-        <v>80</v>
+        <v>1157</v>
       </c>
       <c r="AA231" t="s" s="2">
         <v>80</v>
@@ -31703,7 +31628,7 @@
         <v>80</v>
       </c>
       <c r="AF231" t="s" s="2">
-        <v>1145</v>
+        <v>1153</v>
       </c>
       <c r="AG231" t="s" s="2">
         <v>78</v>
@@ -31724,24 +31649,24 @@
         <v>80</v>
       </c>
       <c r="AM231" t="s" s="2">
-        <v>80</v>
+        <v>316</v>
       </c>
       <c r="AN231" t="s" s="2">
-        <v>547</v>
+        <v>80</v>
       </c>
       <c r="AO231" t="s" s="2">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="AP231" t="s" s="2">
-        <v>80</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="232" hidden="true">
       <c r="A232" t="s" s="2">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="B232" t="s" s="2">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="C232" s="2"/>
       <c r="D232" t="s" s="2">
@@ -31764,15 +31689,17 @@
         <v>80</v>
       </c>
       <c r="K232" t="s" s="2">
-        <v>575</v>
+        <v>1161</v>
       </c>
       <c r="L232" t="s" s="2">
-        <v>1150</v>
+        <v>1162</v>
       </c>
       <c r="M232" t="s" s="2">
-        <v>1151</v>
-      </c>
-      <c r="N232" s="2"/>
+        <v>1163</v>
+      </c>
+      <c r="N232" t="s" s="2">
+        <v>1164</v>
+      </c>
       <c r="O232" s="2"/>
       <c r="P232" t="s" s="2">
         <v>80</v>
@@ -31821,7 +31748,7 @@
         <v>80</v>
       </c>
       <c r="AF232" t="s" s="2">
-        <v>1149</v>
+        <v>1160</v>
       </c>
       <c r="AG232" t="s" s="2">
         <v>78</v>
@@ -31839,7 +31766,7 @@
         <v>80</v>
       </c>
       <c r="AL232" t="s" s="2">
-        <v>80</v>
+        <v>1165</v>
       </c>
       <c r="AM232" t="s" s="2">
         <v>80</v>
@@ -31848,966 +31775,14 @@
         <v>80</v>
       </c>
       <c r="AO232" t="s" s="2">
-        <v>1152</v>
+        <v>1166</v>
       </c>
       <c r="AP232" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="233" hidden="true">
-      <c r="A233" t="s" s="2">
-        <v>1153</v>
-      </c>
-      <c r="B233" t="s" s="2">
-        <v>1153</v>
-      </c>
-      <c r="C233" s="2"/>
-      <c r="D233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E233" s="2"/>
-      <c r="F233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G233" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K233" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L233" t="s" s="2">
-        <v>1154</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>1155</v>
-      </c>
-      <c r="N233" s="2"/>
-      <c r="O233" s="2"/>
-      <c r="P233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q233" s="2"/>
-      <c r="R233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X233" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y233" s="2"/>
-      <c r="Z233" t="s" s="2">
-        <v>1156</v>
-      </c>
-      <c r="AA233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF233" t="s" s="2">
-        <v>1153</v>
-      </c>
-      <c r="AG233" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH233" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ233" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN233" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO233" t="s" s="2">
-        <v>1157</v>
-      </c>
-      <c r="AP233" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="234" hidden="true">
-      <c r="A234" t="s" s="2">
-        <v>1158</v>
-      </c>
-      <c r="B234" t="s" s="2">
-        <v>1158</v>
-      </c>
-      <c r="C234" s="2"/>
-      <c r="D234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E234" s="2"/>
-      <c r="F234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G234" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H234" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="I234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K234" t="s" s="2">
-        <v>1090</v>
-      </c>
-      <c r="L234" t="s" s="2">
-        <v>1159</v>
-      </c>
-      <c r="M234" t="s" s="2">
-        <v>1160</v>
-      </c>
-      <c r="N234" s="2"/>
-      <c r="O234" s="2"/>
-      <c r="P234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q234" s="2"/>
-      <c r="R234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF234" t="s" s="2">
-        <v>1158</v>
-      </c>
-      <c r="AG234" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH234" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ234" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK234" t="s" s="2">
-        <v>1161</v>
-      </c>
-      <c r="AL234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM234" t="s" s="2">
-        <v>1162</v>
-      </c>
-      <c r="AN234" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO234" t="s" s="2">
-        <v>1163</v>
-      </c>
-      <c r="AP234" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="235" hidden="true">
-      <c r="A235" t="s" s="2">
-        <v>1164</v>
-      </c>
-      <c r="B235" t="s" s="2">
-        <v>1164</v>
-      </c>
-      <c r="C235" s="2"/>
-      <c r="D235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E235" s="2"/>
-      <c r="F235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G235" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K235" t="s" s="2">
-        <v>227</v>
-      </c>
-      <c r="L235" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="M235" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="N235" s="2"/>
-      <c r="O235" s="2"/>
-      <c r="P235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q235" s="2"/>
-      <c r="R235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF235" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="AG235" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH235" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI235" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AJ235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AK235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN235" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO235" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP235" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="236" hidden="true">
-      <c r="A236" t="s" s="2">
-        <v>1165</v>
-      </c>
-      <c r="B236" t="s" s="2">
-        <v>1165</v>
-      </c>
-      <c r="C236" s="2"/>
-      <c r="D236" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="E236" s="2"/>
-      <c r="F236" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G236" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K236" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L236" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>194</v>
-      </c>
-      <c r="N236" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O236" s="2"/>
-      <c r="P236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q236" s="2"/>
-      <c r="R236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF236" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AG236" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH236" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ236" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN236" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO236" t="s" s="2">
-        <v>191</v>
-      </c>
-      <c r="AP236" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="237" hidden="true">
-      <c r="A237" t="s" s="2">
-        <v>1166</v>
-      </c>
-      <c r="B237" t="s" s="2">
-        <v>1166</v>
-      </c>
-      <c r="C237" s="2"/>
-      <c r="D237" t="s" s="2">
-        <v>670</v>
-      </c>
-      <c r="E237" s="2"/>
-      <c r="F237" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I237" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="J237" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="K237" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="L237" t="s" s="2">
-        <v>671</v>
-      </c>
-      <c r="M237" t="s" s="2">
-        <v>672</v>
-      </c>
-      <c r="N237" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="O237" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="P237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q237" s="2"/>
-      <c r="R237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF237" t="s" s="2">
-        <v>1098</v>
-      </c>
-      <c r="AG237" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH237" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ237" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AK237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN237" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO237" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AP237" t="s" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="238" hidden="true">
-      <c r="A238" t="s" s="2">
-        <v>1167</v>
-      </c>
-      <c r="B238" t="s" s="2">
-        <v>1167</v>
-      </c>
-      <c r="C238" s="2"/>
-      <c r="D238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E238" s="2"/>
-      <c r="F238" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="G238" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K238" t="s" s="2">
-        <v>1168</v>
-      </c>
-      <c r="L238" t="s" s="2">
-        <v>1169</v>
-      </c>
-      <c r="M238" t="s" s="2">
-        <v>1170</v>
-      </c>
-      <c r="N238" t="s" s="2">
-        <v>1171</v>
-      </c>
-      <c r="O238" s="2"/>
-      <c r="P238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q238" s="2"/>
-      <c r="R238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X238" t="s" s="2">
-        <v>872</v>
-      </c>
-      <c r="Y238" t="s" s="2">
-        <v>1172</v>
-      </c>
-      <c r="Z238" t="s" s="2">
-        <v>1173</v>
-      </c>
-      <c r="AA238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF238" t="s" s="2">
-        <v>1167</v>
-      </c>
-      <c r="AG238" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AH238" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ238" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM238" t="s" s="2">
-        <v>1162</v>
-      </c>
-      <c r="AN238" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO238" t="s" s="2">
-        <v>1174</v>
-      </c>
-      <c r="AP238" t="s" s="2">
-        <v>1175</v>
-      </c>
-    </row>
-    <row r="239" hidden="true">
-      <c r="A239" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="B239" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="C239" s="2"/>
-      <c r="D239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E239" s="2"/>
-      <c r="F239" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G239" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="H239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K239" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="L239" t="s" s="2">
-        <v>1177</v>
-      </c>
-      <c r="M239" t="s" s="2">
-        <v>1178</v>
-      </c>
-      <c r="N239" s="2"/>
-      <c r="O239" s="2"/>
-      <c r="P239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q239" s="2"/>
-      <c r="R239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X239" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Y239" t="s" s="2">
-        <v>1179</v>
-      </c>
-      <c r="Z239" t="s" s="2">
-        <v>1180</v>
-      </c>
-      <c r="AA239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF239" t="s" s="2">
-        <v>1176</v>
-      </c>
-      <c r="AG239" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH239" t="s" s="2">
-        <v>91</v>
-      </c>
-      <c r="AI239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ239" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AM239" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AN239" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO239" t="s" s="2">
-        <v>1181</v>
-      </c>
-      <c r="AP239" t="s" s="2">
-        <v>1182</v>
-      </c>
-    </row>
-    <row r="240" hidden="true">
-      <c r="A240" t="s" s="2">
-        <v>1183</v>
-      </c>
-      <c r="B240" t="s" s="2">
-        <v>1183</v>
-      </c>
-      <c r="C240" s="2"/>
-      <c r="D240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="E240" s="2"/>
-      <c r="F240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="G240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="H240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="I240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="J240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="K240" t="s" s="2">
-        <v>1184</v>
-      </c>
-      <c r="L240" t="s" s="2">
-        <v>1185</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>1186</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>1187</v>
-      </c>
-      <c r="O240" s="2"/>
-      <c r="P240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Q240" s="2"/>
-      <c r="R240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="S240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="T240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="U240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="V240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="W240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="X240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Y240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="Z240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AA240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AB240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AC240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AD240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AE240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AF240" t="s" s="2">
-        <v>1183</v>
-      </c>
-      <c r="AG240" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH240" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AJ240" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="AK240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AL240" t="s" s="2">
-        <v>1188</v>
-      </c>
-      <c r="AM240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AN240" t="s" s="2">
-        <v>80</v>
-      </c>
-      <c r="AO240" t="s" s="2">
-        <v>1189</v>
-      </c>
-      <c r="AP240" t="s" s="2">
         <v>80</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AP240">
+  <autoFilter ref="A1:AP232">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -32817,7 +31792,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI239">
+  <conditionalFormatting sqref="A2:AI231">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:36:39+00:00</t>
+    <t>2024-06-10T07:41:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T07:41:34+00:00</t>
+    <t>2024-06-10T08:10:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-10T08:10:59+00:00</t>
+    <t>2024-06-10T15:21:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:09:11+00:00</t>
+    <t>2024-06-11T13:36:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:23+00:00</t>
+    <t>2024-06-11T13:36:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:36:58+00:00</t>
+    <t>2024-06-11T13:40:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T13:40:55+00:00</t>
+    <t>2024-06-11T14:41:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-11T14:41:15+00:00</t>
+    <t>2024-06-14T09:45:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T08:31:35+00:00</t>
+    <t>2024-06-17T10:03:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T10:03:01+00:00</t>
+    <t>2024-06-17T13:29:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:29:46+00:00</t>
+    <t>2024-06-17T13:35:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T13:35:15+00:00</t>
+    <t>2024-06-17T14:22:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:02:03+00:00</t>
+    <t>2024-06-17T15:41:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12765,10 +12765,10 @@
         <v>104</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>80</v>
+        <v>527</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>527</v>
+        <v>80</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>521</v>
@@ -13497,10 +13497,10 @@
         <v>104</v>
       </c>
       <c r="AK79" t="s" s="2">
-        <v>80</v>
+        <v>554</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>554</v>
+        <v>80</v>
       </c>
       <c r="AM79" t="s" s="2">
         <v>521</v>
@@ -14229,10 +14229,10 @@
         <v>104</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>80</v>
+        <v>564</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>564</v>
+        <v>80</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>521</v>
@@ -15449,10 +15449,10 @@
         <v>104</v>
       </c>
       <c r="AK95" t="s" s="2">
-        <v>80</v>
+        <v>587</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="AM95" t="s" s="2">
         <v>80</v>
@@ -15574,10 +15574,10 @@
         <v>104</v>
       </c>
       <c r="AK96" t="s" s="2">
-        <v>80</v>
+        <v>596</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>596</v>
+        <v>80</v>
       </c>
       <c r="AM96" t="s" s="2">
         <v>80</v>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-17T15:41:32+00:00</t>
+    <t>2024-06-17T15:49:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T11:28:46+00:00</t>
+    <t>2024-06-19T14:43:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:43:39+00:00</t>
+    <t>2024-06-19T14:52:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-19T14:52:00+00:00</t>
+    <t>2024-06-21T13:36:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-21T13:36:06+00:00</t>
+    <t>2024-06-24T09:13:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-24T09:13:58+00:00</t>
+    <t>2024-06-25T08:47:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-06-25T08:47:40+00:00</t>
+    <t>2024-06-25T15:16:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T07:50:29+00:00</t>
+    <t>2024-07-01T08:31:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T08:31:50+00:00</t>
+    <t>2024-07-01T09:30:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T09:30:15+00:00</t>
+    <t>2024-07-01T10:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T10:02:25+00:00</t>
+    <t>2024-07-01T11:58:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T11:58:14+00:00</t>
+    <t>2024-07-01T12:32:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T12:32:20+00:00</t>
+    <t>2024-07-01T13:52:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T13:52:38+00:00</t>
+    <t>2024-07-01T15:03:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-01T15:03:37+00:00</t>
+    <t>2024-07-02T14:09:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-02T14:09:09+00:00</t>
+    <t>2024-07-08T15:06:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-08T15:06:33+00:00</t>
+    <t>2024-07-09T09:06:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:06:22+00:00</t>
+    <t>2024-07-09T09:07:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T09:07:42+00:00</t>
+    <t>2024-07-09T15:05:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-09T15:05:31+00:00</t>
+    <t>2024-07-17T09:54:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-17T09:54:34+00:00</t>
+    <t>2024-07-25T08:23:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-25T08:23:41+00:00</t>
+    <t>2024-07-30T09:08:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:08:54+00:00</t>
+    <t>2024-07-30T09:18:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:18:29+00:00</t>
+    <t>2024-07-30T09:25:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T09:25:03+00:00</t>
+    <t>2024-07-30T13:05:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:05:01+00:00</t>
+    <t>2024-07-30T13:12:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
+++ b/update-mapping-pn13/ig/StructureDefinition-oncofair-medicationrequest-element.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-07-30T13:12:38+00:00</t>
+    <t>2024-09-10T09:55:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
